--- a/data/trans_orig/P34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14578</v>
+        <v>14022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33119</v>
+        <v>32405</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04468289101136624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02964379971280089</v>
+        <v>0.02851308493423243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06734703549606132</v>
+        <v>0.06589531746341451</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9961</v>
+        <v>9762</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005258519166146381</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02156576678872313</v>
+        <v>0.02113555876524081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>24402</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16060</v>
+        <v>17002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36121</v>
+        <v>36721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02558861998439581</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01684113889800483</v>
+        <v>0.01782859764086934</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03787679798624832</v>
+        <v>0.03850566798442743</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>74297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60255</v>
+        <v>60363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91773</v>
+        <v>92548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1510810367100658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1225269404816652</v>
+        <v>0.1227475590597874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.186618565012503</v>
+        <v>0.1881938099560903</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -836,19 +836,19 @@
         <v>18315</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11605</v>
+        <v>11304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28286</v>
+        <v>26960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03965292629355768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02512676948482041</v>
+        <v>0.02447399139789688</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06124121973903019</v>
+        <v>0.05837094514499053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -857,19 +857,19 @@
         <v>92612</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75586</v>
+        <v>75017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111768</v>
+        <v>111822</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09711344152125455</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07926043035312187</v>
+        <v>0.07866408839006844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1172015493408418</v>
+        <v>0.1172581645188278</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>132857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113430</v>
+        <v>113202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153117</v>
+        <v>153305</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.270161199136117</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2306568028219217</v>
+        <v>0.2301929001753777</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3113594826333277</v>
+        <v>0.3117416934536627</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>198</v>
@@ -907,19 +907,19 @@
         <v>195055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>175432</v>
+        <v>174329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>217798</v>
+        <v>216040</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4223108867618539</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3798257772627792</v>
+        <v>0.377438436040576</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4715519778780004</v>
+        <v>0.4677458762099931</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>328</v>
@@ -928,19 +928,19 @@
         <v>327911</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>302258</v>
+        <v>299342</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>358797</v>
+        <v>360315</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3438513363842253</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3169514022662589</v>
+        <v>0.3138927039642442</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3762385373403253</v>
+        <v>0.377829620001101</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>262641</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>240739</v>
+        <v>240276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>284090</v>
+        <v>283829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5340748731424509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4895380226309752</v>
+        <v>0.4885964311401981</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.577691942175127</v>
+        <v>0.5771610111253448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>264</v>
@@ -978,19 +978,19 @@
         <v>246077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223658</v>
+        <v>223145</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>266474</v>
+        <v>266636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.532777667778442</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4842392930741392</v>
+        <v>0.4831285418874213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5769392443509669</v>
+        <v>0.5772905279036523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>537</v>
@@ -999,19 +999,19 @@
         <v>508718</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>477715</v>
+        <v>475333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>538393</v>
+        <v>540516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5334466021101243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5009368140142056</v>
+        <v>0.4984392049644959</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.564564242537926</v>
+        <v>0.5667902453707065</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>58771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44424</v>
+        <v>44878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>78311</v>
+        <v>75401</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08071311407520655</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06100963150833651</v>
+        <v>0.06163341036108614</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1075488013116906</v>
+        <v>0.1035532752515322</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -1124,19 +1124,19 @@
         <v>21297</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13871</v>
+        <v>13610</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32397</v>
+        <v>32090</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03432330131986833</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02235563867973776</v>
+        <v>0.02193412207369241</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05221157900913873</v>
+        <v>0.051717728701661</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>74</v>
@@ -1145,19 +1145,19 @@
         <v>80068</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>62745</v>
+        <v>63500</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>99002</v>
+        <v>100775</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05936975586627565</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04652518633515202</v>
+        <v>0.04708494916116239</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07340926066808681</v>
+        <v>0.07472433139065869</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>157144</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135495</v>
+        <v>133043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181878</v>
+        <v>179214</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2158148197942289</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1860826150375134</v>
+        <v>0.1827158927349959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2497840542790722</v>
+        <v>0.2461255656876917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1195,19 +1195,19 @@
         <v>67946</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52684</v>
+        <v>52882</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86712</v>
+        <v>85998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1095048132673659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08490681016989865</v>
+        <v>0.08522606812949678</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1397478322057629</v>
+        <v>0.1385973932904775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>209</v>
@@ -1216,19 +1216,19 @@
         <v>225090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198065</v>
+        <v>198202</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>254399</v>
+        <v>253319</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1669029485076711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1468641126594165</v>
+        <v>0.146965243871308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1886351141518156</v>
+        <v>0.1878347387314025</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>264982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239266</v>
+        <v>239142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291583</v>
+        <v>290503</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3639155884768307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3285986152430965</v>
+        <v>0.3284283467344545</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4004476019686236</v>
+        <v>0.3989649099330812</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>332</v>
@@ -1266,19 +1266,19 @@
         <v>351754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328163</v>
+        <v>326410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>376441</v>
+        <v>378620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5668995781228756</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5288790674615047</v>
+        <v>0.5260546958813589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6066864184189291</v>
+        <v>0.6101977356015622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>582</v>
@@ -1287,19 +1287,19 @@
         <v>616736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>578455</v>
+        <v>580305</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>654532</v>
+        <v>654093</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4573059201977734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4289208802269292</v>
+        <v>0.4302925157211128</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4853312585408924</v>
+        <v>0.485005842310031</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>247245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>222855</v>
+        <v>222193</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>274994</v>
+        <v>272956</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3395564776537339</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3060592936517902</v>
+        <v>0.3051505644102271</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3776659566508113</v>
+        <v>0.3748658751942167</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>173</v>
@@ -1337,19 +1337,19 @@
         <v>179490</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>157530</v>
+        <v>157694</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>202474</v>
+        <v>205048</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2892723072898902</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.253881814096739</v>
+        <v>0.2541455425419629</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.326315303819921</v>
+        <v>0.3304635785907699</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>417</v>
@@ -1358,19 +1358,19 @@
         <v>426735</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>395805</v>
+        <v>393091</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>461343</v>
+        <v>463389</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3164213754282798</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2934867397522772</v>
+        <v>0.2914746467475263</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3420830612148704</v>
+        <v>0.343600320210833</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>70599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54998</v>
+        <v>55379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86864</v>
+        <v>90432</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1111931397474634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08662046797555442</v>
+        <v>0.08722098279316613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1368093042892074</v>
+        <v>0.1424298929498967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1483,19 +1483,19 @@
         <v>39343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29036</v>
+        <v>30013</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52958</v>
+        <v>53633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05745326842407156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04240185081358324</v>
+        <v>0.04382893867315257</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07733549408377557</v>
+        <v>0.07832147591758375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -1504,19 +1504,19 @@
         <v>109942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>89720</v>
+        <v>91620</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128804</v>
+        <v>131417</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08330807846697133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06798477676774224</v>
+        <v>0.06942461061463885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09760052983375532</v>
+        <v>0.0995806529772582</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>121916</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>102370</v>
+        <v>102325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>145386</v>
+        <v>143682</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1920162636402641</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1612312295016976</v>
+        <v>0.1611604307593917</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2289810543857506</v>
+        <v>0.2262970453181872</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>65</v>
@@ -1554,19 +1554,19 @@
         <v>68588</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>54361</v>
+        <v>52967</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>85790</v>
+        <v>85309</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1001605669730311</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07938434997478827</v>
+        <v>0.07734841706644391</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1252805765392632</v>
+        <v>0.1245777728307996</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>181</v>
@@ -1575,19 +1575,19 @@
         <v>190504</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>165520</v>
+        <v>165923</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>218988</v>
+        <v>217208</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1443532963228645</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1254213812583209</v>
+        <v>0.1257267917505946</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1659364857276864</v>
+        <v>0.1645882254296147</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>277986</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>251263</v>
+        <v>251367</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>303253</v>
+        <v>305186</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.437824513592333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3957358200210996</v>
+        <v>0.3959008839785355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.477620886691443</v>
+        <v>0.4806644323089698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>431</v>
@@ -1625,19 +1625,19 @@
         <v>448439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>423795</v>
+        <v>424110</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>473427</v>
+        <v>473310</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6548624599819122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6188741964537688</v>
+        <v>0.6193348922582991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6913529907453908</v>
+        <v>0.6911824975675049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>696</v>
@@ -1646,19 +1646,19 @@
         <v>726424</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>690594</v>
+        <v>689849</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>764546</v>
+        <v>763375</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5504432505975928</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5232931679935802</v>
+        <v>0.5227285717568476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5793295309786067</v>
+        <v>0.5784426126466448</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>164424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144918</v>
+        <v>142984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187676</v>
+        <v>188689</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2589660830199396</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2282444601840556</v>
+        <v>0.2251978934622973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.295586918160995</v>
+        <v>0.2971827754281952</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -1696,19 +1696,19 @@
         <v>128413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108517</v>
+        <v>109005</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>150032</v>
+        <v>153227</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1875237046209851</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1584698179934098</v>
+        <v>0.1591819735706695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2190948594857074</v>
+        <v>0.2237602423606007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>280</v>
@@ -1717,19 +1717,19 @@
         <v>292837</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>262663</v>
+        <v>264474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>324751</v>
+        <v>324650</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2218953746125713</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1990309322303037</v>
+        <v>0.2004031047792228</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2460782932344498</v>
+        <v>0.246001191409668</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>68227</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54703</v>
+        <v>54538</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85026</v>
+        <v>86764</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1332982214283077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.106876134473395</v>
+        <v>0.1065539806874739</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1661207378205453</v>
+        <v>0.1695160175790638</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1842,19 +1842,19 @@
         <v>37286</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27667</v>
+        <v>26861</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51447</v>
+        <v>50590</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07244949868163778</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0537593689495879</v>
+        <v>0.05219254823014818</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09996370969153112</v>
+        <v>0.0982997180924851</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1863,19 +1863,19 @@
         <v>105513</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87312</v>
+        <v>88298</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126548</v>
+        <v>126965</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1027903724106891</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08505931624670054</v>
+        <v>0.08601940323995089</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1232831872284721</v>
+        <v>0.1236886168909024</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>97486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81282</v>
+        <v>78805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118612</v>
+        <v>113851</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1904635920049434</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1588044956001662</v>
+        <v>0.1539664525226293</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2317396183124388</v>
+        <v>0.2224378144559998</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -1913,19 +1913,19 @@
         <v>42345</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31828</v>
+        <v>30799</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56151</v>
+        <v>55635</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08227903603629828</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06184418649048141</v>
+        <v>0.05984352037575147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1091046009760694</v>
+        <v>0.1081016041933922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>134</v>
@@ -1934,19 +1934,19 @@
         <v>139831</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>118045</v>
+        <v>118993</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164013</v>
+        <v>161640</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1362228791263783</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1149987466106108</v>
+        <v>0.1159227982894441</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1597812682291727</v>
+        <v>0.157469246167271</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>178003</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>158084</v>
+        <v>156549</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>200462</v>
+        <v>203714</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3477744582404974</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3088582679652923</v>
+        <v>0.3058586415310495</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3916544928350365</v>
+        <v>0.398006957335776</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>345</v>
@@ -1984,19 +1984,19 @@
         <v>356905</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>333575</v>
+        <v>334535</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>375024</v>
+        <v>377211</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6934872114784905</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6481571995305283</v>
+        <v>0.6500219349795403</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7286947963373408</v>
+        <v>0.7329433527625832</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>511</v>
@@ -2005,19 +2005,19 @@
         <v>534907</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>502992</v>
+        <v>503306</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>568169</v>
+        <v>567552</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5211051709188854</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4900133297734939</v>
+        <v>0.4903190868378223</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5535090828714276</v>
+        <v>0.5529074829737162</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>168119</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>147012</v>
+        <v>146163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>189284</v>
+        <v>191686</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3284637283262514</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.287224477686882</v>
+        <v>0.2855670761452242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3698149177350903</v>
+        <v>0.3745082032304262</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -2055,19 +2055,19 @@
         <v>78116</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63147</v>
+        <v>63004</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96863</v>
+        <v>95008</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1517842538035734</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1226985343991588</v>
+        <v>0.1224208521461294</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1882111444724751</v>
+        <v>0.1846072538395171</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>232</v>
@@ -2076,19 +2076,19 @@
         <v>246235</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>219579</v>
+        <v>219083</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>275656</v>
+        <v>276631</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2398815775440472</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2139130584596698</v>
+        <v>0.2134298427790259</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2685437493051628</v>
+        <v>0.2694931809159326</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>21869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14793</v>
+        <v>15100</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32461</v>
+        <v>32261</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05691162202662466</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03849757775813725</v>
+        <v>0.03929708897845204</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08447594371956968</v>
+        <v>0.08395539982327889</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -2201,19 +2201,19 @@
         <v>27488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19092</v>
+        <v>19559</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40360</v>
+        <v>39213</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0683721042069971</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04748885523932478</v>
+        <v>0.04864915321916573</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.10038837049827</v>
+        <v>0.09753545258908825</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>51</v>
@@ -2222,19 +2222,19 @@
         <v>49357</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37814</v>
+        <v>37072</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>63248</v>
+        <v>62878</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06277138376525884</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0480913073351206</v>
+        <v>0.04714703443863618</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08043769823496469</v>
+        <v>0.07996728342254657</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>55076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43483</v>
+        <v>42371</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69904</v>
+        <v>72386</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1433292257807251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1131596992629747</v>
+        <v>0.1102662372990876</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1819164706485643</v>
+        <v>0.1883767137163219</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -2272,19 +2272,19 @@
         <v>23341</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14976</v>
+        <v>14394</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33285</v>
+        <v>33612</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05805771849866719</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03725131426652988</v>
+        <v>0.03580229858930001</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0827915379118256</v>
+        <v>0.08360507640977972</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -2293,19 +2293,19 @@
         <v>78417</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64768</v>
+        <v>61829</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>98525</v>
+        <v>95816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09972977613254019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08237135639817797</v>
+        <v>0.07863289188763811</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1253024739722942</v>
+        <v>0.1218579469916048</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>175393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>156858</v>
+        <v>155261</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>195192</v>
+        <v>194584</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.456442230559869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4082060003205251</v>
+        <v>0.4040490251203869</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5079662609452142</v>
+        <v>0.5063827227542604</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>256</v>
@@ -2343,19 +2343,19 @@
         <v>261017</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>240855</v>
+        <v>243889</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>279712</v>
+        <v>279177</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.649242166793055</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5990902795663807</v>
+        <v>0.6066369928912932</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6957431008165986</v>
+        <v>0.694412387136659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>434</v>
@@ -2364,19 +2364,19 @@
         <v>436411</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>407629</v>
+        <v>408458</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>461664</v>
+        <v>462063</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5550211273086634</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5184172667484239</v>
+        <v>0.5194715691625348</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5871376994601968</v>
+        <v>0.5876446006444883</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>131924</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>114362</v>
+        <v>113597</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>149786</v>
+        <v>149375</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3433169216327812</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2976154114820542</v>
+        <v>0.29562307454511</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3898025064581844</v>
+        <v>0.3887319249933292</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>87</v>
@@ -2414,19 +2414,19 @@
         <v>90187</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>74920</v>
+        <v>74089</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>106914</v>
+        <v>107813</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2243280105012807</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1863516322177749</v>
+        <v>0.1842863690188173</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2659322756205857</v>
+        <v>0.2681683268039108</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>222</v>
@@ -2435,19 +2435,19 @@
         <v>222111</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>196755</v>
+        <v>199297</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>247439</v>
+        <v>248534</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2824777127935376</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2502306379635064</v>
+        <v>0.2534627489803215</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3146899737393275</v>
+        <v>0.3160821931738314</v>
       </c>
     </row>
     <row r="28">
@@ -2552,19 +2552,19 @@
         <v>5327</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1793</v>
+        <v>1848</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11110</v>
+        <v>11560</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01561452238415934</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005257069269470222</v>
+        <v>0.005417467406848018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03256554279513911</v>
+        <v>0.03388569370961939</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2573,19 +2573,19 @@
         <v>5327</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1835</v>
+        <v>1888</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10835</v>
+        <v>10777</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00851928258029905</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002934875274695476</v>
+        <v>0.003020030121137996</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01732793613117501</v>
+        <v>0.01723541343910496</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>12075</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6713</v>
+        <v>6652</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19980</v>
+        <v>20132</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0424990604551044</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02362728797257061</v>
+        <v>0.02341259287200094</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07032077004632759</v>
+        <v>0.07085631158769198</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2623,19 +2623,19 @@
         <v>5645</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11389</v>
+        <v>10961</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01654734504786645</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005884978952927449</v>
+        <v>0.005849369138681121</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03338472008135542</v>
+        <v>0.03212911427963031</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -2644,19 +2644,19 @@
         <v>17720</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10884</v>
+        <v>10870</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>28785</v>
+        <v>29284</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02833980591254775</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0174062648099572</v>
+        <v>0.01738461355738495</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04603572169374588</v>
+        <v>0.04683385175420193</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>127599</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>111414</v>
+        <v>111173</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>144866</v>
+        <v>144952</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4490992912880236</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.392134325678443</v>
+        <v>0.3912859988240179</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.509873881573081</v>
+        <v>0.5101766913968103</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>216</v>
@@ -2694,19 +2694,19 @@
         <v>198434</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>181084</v>
+        <v>180280</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>215739</v>
+        <v>215033</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5816657799494357</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5308078436916156</v>
+        <v>0.528453659924952</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6323942896915814</v>
+        <v>0.6303223087793011</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>348</v>
@@ -2715,19 +2715,19 @@
         <v>326032</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>301220</v>
+        <v>301557</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>348589</v>
+        <v>350420</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5214275604338225</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4817451420051798</v>
+        <v>0.4822837975522996</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5575017104521774</v>
+        <v>0.5604306255911448</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>144448</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>128025</v>
+        <v>126612</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>160507</v>
+        <v>159910</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.508401648256872</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4505976381563183</v>
+        <v>0.4456250058402204</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5649216837428108</v>
+        <v>0.5628201409677961</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>141</v>
@@ -2765,19 +2765,19 @@
         <v>131742</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>114574</v>
+        <v>114503</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>147584</v>
+        <v>149213</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3861723526185386</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3358496904484731</v>
+        <v>0.3356402817551293</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4326099433363073</v>
+        <v>0.4373854333683088</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>291</v>
@@ -2786,19 +2786,19 @@
         <v>276190</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>253688</v>
+        <v>252146</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>301273</v>
+        <v>300503</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4417133510733307</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4057263942800539</v>
+        <v>0.4032603292898702</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4818286503925743</v>
+        <v>0.4805980639777716</v>
       </c>
     </row>
     <row r="33">
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4145</v>
+        <v>4433</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003946799024539694</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01991705014041847</v>
+        <v>0.02129922623291649</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7788</v>
+        <v>7369</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006672925003056405</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02372808203294663</v>
+        <v>0.02245267635356631</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>3012</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8524</v>
+        <v>8548</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005615075640970654</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001526647080181367</v>
+        <v>0.001520908250731776</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01589343692869571</v>
+        <v>0.01593883286527698</v>
       </c>
     </row>
     <row r="35">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6645</v>
+        <v>6693</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00827691718978061</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03193102983410935</v>
+        <v>0.03216132488537386</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2982,19 +2982,19 @@
         <v>3592</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9645</v>
+        <v>9553</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01094556224510786</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003528554094213048</v>
+        <v>0.0035386764584968</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02938713409053299</v>
+        <v>0.02910604150323763</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -3003,19 +3003,19 @@
         <v>5315</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11964</v>
+        <v>12357</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.009910017852934452</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003688883702991077</v>
+        <v>0.003681107711402772</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02230791050051265</v>
+        <v>0.02304085844895248</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>67078</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54660</v>
+        <v>54295</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>80521</v>
+        <v>81030</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3223120288754684</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2626414412798149</v>
+        <v>0.2608883996122675</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3869053758912305</v>
+        <v>0.3893501458880385</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>111</v>
@@ -3053,19 +3053,19 @@
         <v>128309</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>109720</v>
+        <v>110836</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>147256</v>
+        <v>148012</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3909376352064293</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3342998348306451</v>
+        <v>0.3376980892754095</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4486661235681316</v>
+        <v>0.4509681132565423</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>184</v>
@@ -3074,19 +3074,19 @@
         <v>195388</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>175150</v>
+        <v>174022</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>219473</v>
+        <v>218860</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3643080683954875</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3265740807037112</v>
+        <v>0.3244706810244022</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4092154364941749</v>
+        <v>0.4080723953943804</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>138494</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>124708</v>
+        <v>124271</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>150880</v>
+        <v>151122</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6654642549102113</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5992258174913515</v>
+        <v>0.5971222576612734</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.724979101249562</v>
+        <v>0.7261411276781645</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>169</v>
@@ -3124,19 +3124,19 @@
         <v>194117</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>176271</v>
+        <v>174465</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>213272</v>
+        <v>211882</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5914438775454065</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5370679026103969</v>
+        <v>0.5315678865404148</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6498045019972702</v>
+        <v>0.6455696217351607</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>311</v>
@@ -3145,19 +3145,19 @@
         <v>332612</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>308119</v>
+        <v>308840</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>353128</v>
+        <v>354439</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6201668381106075</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5744985563240783</v>
+        <v>0.5758442370070227</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6584205992913829</v>
+        <v>0.6608650520984254</v>
       </c>
     </row>
     <row r="38">
@@ -3249,19 +3249,19 @@
         <v>242261</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>216247</v>
+        <v>211378</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>276015</v>
+        <v>273872</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.07469868004717445</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06667759119386284</v>
+        <v>0.06517647825757679</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08510656277663578</v>
+        <v>0.08444561061113411</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>134</v>
@@ -3270,19 +3270,19 @@
         <v>135360</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>115163</v>
+        <v>113331</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>160559</v>
+        <v>158841</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04036759924225853</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03434440052920426</v>
+        <v>0.0337980370527349</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04788265222110635</v>
+        <v>0.04737011692927428</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>365</v>
@@ -3291,19 +3291,19 @@
         <v>377621</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>339864</v>
+        <v>340587</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>416365</v>
+        <v>414239</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.05724684967922659</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05152295733622467</v>
+        <v>0.0516325606789712</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.06312041071997633</v>
+        <v>0.06279821506188517</v>
       </c>
     </row>
     <row r="40">
@@ -3320,19 +3320,19 @@
         <v>519716</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>479481</v>
+        <v>474717</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>563611</v>
+        <v>560724</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1602493460940966</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1478433749886873</v>
+        <v>0.1463742702312716</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.173783810381117</v>
+        <v>0.1728937186200261</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>220</v>
@@ -3341,19 +3341,19 @@
         <v>229773</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>204026</v>
+        <v>200597</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>264307</v>
+        <v>261399</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06852376919024775</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06084536035584499</v>
+        <v>0.05982270529913327</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07882259424144733</v>
+        <v>0.07795533479655634</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>715</v>
@@ -3362,19 +3362,19 @@
         <v>749489</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>699081</v>
+        <v>702896</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>808215</v>
+        <v>803332</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1136216498201445</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1059799282056734</v>
+        <v>0.106558199888089</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1225244930296637</v>
+        <v>0.1217841930140164</v>
       </c>
     </row>
     <row r="41">
@@ -3391,19 +3391,19 @@
         <v>1223899</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1160226</v>
+        <v>1167556</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1282474</v>
+        <v>1277005</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3773771754215084</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3577443576063711</v>
+        <v>0.3600043421832969</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3954383427142529</v>
+        <v>0.3937519804410784</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1889</v>
@@ -3412,19 +3412,19 @@
         <v>1939911</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1879031</v>
+        <v>1882045</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1995346</v>
+        <v>1995224</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5785278536376663</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5603717587957001</v>
+        <v>0.5612705355488743</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5950598061556307</v>
+        <v>0.595023243567266</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3083</v>
@@ -3433,19 +3433,19 @@
         <v>3163810</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3081608</v>
+        <v>3085580</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3239414</v>
+        <v>3246492</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4796299280969612</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.467168141684137</v>
+        <v>0.4677703207963396</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4910913028492517</v>
+        <v>0.4921643567488111</v>
       </c>
     </row>
     <row r="42">
@@ -3462,19 +3462,19 @@
         <v>1257296</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3876747984372205</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1029</v>
@@ -3483,19 +3483,19 @@
         <v>1048141</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3125807779298274</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2290</v>
@@ -3504,19 +3504,19 @@
         <v>2305437</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3495015724036676</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
     </row>
     <row r="43">
@@ -3851,19 +3851,19 @@
         <v>17570</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10256</v>
+        <v>10892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27531</v>
+        <v>26788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0388429168216426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0226734406617821</v>
+        <v>0.02407911231640527</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06086455422779138</v>
+        <v>0.05922196266092186</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5354</v>
+        <v>5698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002495502361669713</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01263290814639718</v>
+        <v>0.01344469822314286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3893,19 +3893,19 @@
         <v>18628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10824</v>
+        <v>11291</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29165</v>
+        <v>28508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02126023503607954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0123540541686934</v>
+        <v>0.01288630883932342</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03328685342208837</v>
+        <v>0.03253699553363604</v>
       </c>
     </row>
     <row r="5">
@@ -3922,19 +3922,19 @@
         <v>60247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46681</v>
+        <v>46137</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76402</v>
+        <v>76375</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1331885420128814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1031997710446525</v>
+        <v>0.1019968690444076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1689046419228244</v>
+        <v>0.1688449280017101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -3943,19 +3943,19 @@
         <v>35475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25601</v>
+        <v>25285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47360</v>
+        <v>48356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08369730416605242</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06040245877811122</v>
+        <v>0.05965619720112523</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.111737556504128</v>
+        <v>0.1140876793523563</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -3964,19 +3964,19 @@
         <v>95721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>78003</v>
+        <v>79494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>114807</v>
+        <v>116009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1092476730635179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08902592400663251</v>
+        <v>0.09072692588759768</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1310302860839884</v>
+        <v>0.132402544646415</v>
       </c>
     </row>
     <row r="6">
@@ -3993,19 +3993,19 @@
         <v>187810</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>168900</v>
+        <v>168435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208241</v>
+        <v>210407</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4151972225862883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.373391060413747</v>
+        <v>0.37236320905347</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4603639451128594</v>
+        <v>0.4651530409958002</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>199</v>
@@ -4014,19 +4014,19 @@
         <v>203979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>183363</v>
+        <v>182201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>224115</v>
+        <v>224559</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.48125689303623</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4326162477893162</v>
+        <v>0.4298752307321158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5287654665184426</v>
+        <v>0.5298130955925388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>383</v>
@@ -4035,19 +4035,19 @@
         <v>391789</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>366224</v>
+        <v>358062</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>423952</v>
+        <v>421020</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4471528976084988</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4179755296472238</v>
+        <v>0.4086599870728901</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4838609566970692</v>
+        <v>0.4805140290519914</v>
       </c>
     </row>
     <row r="7">
@@ -4064,19 +4064,19 @@
         <v>186713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166721</v>
+        <v>167519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>206171</v>
+        <v>209162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4127713185791878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3685740995752757</v>
+        <v>0.3703378796473544</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4557875245157112</v>
+        <v>0.4624005244134584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>179</v>
@@ -4085,19 +4085,19 @@
         <v>183335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162669</v>
+        <v>163631</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203408</v>
+        <v>204426</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4325503004360479</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3837920866618655</v>
+        <v>0.3860634857572924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4799102274799701</v>
+        <v>0.4823117616252394</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>365</v>
@@ -4106,19 +4106,19 @@
         <v>370048</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>338080</v>
+        <v>340652</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>396804</v>
+        <v>400577</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4223391942919038</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3858544681977245</v>
+        <v>0.3887895150218613</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4528762806882948</v>
+        <v>0.4571821980462744</v>
       </c>
     </row>
     <row r="8">
@@ -4210,19 +4210,19 @@
         <v>31581</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23190</v>
+        <v>21922</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45789</v>
+        <v>44013</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04663655130706967</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03424539097947812</v>
+        <v>0.03237358619894454</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06761945660449963</v>
+        <v>0.06499656422319654</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -4231,19 +4231,19 @@
         <v>4768</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12188</v>
+        <v>11725</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007873440041199357</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001617771211349951</v>
+        <v>0.001652025939967896</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02012797526955557</v>
+        <v>0.01936235614669489</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -4252,19 +4252,19 @@
         <v>36348</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26323</v>
+        <v>25839</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>51254</v>
+        <v>51582</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02833735636819163</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02052199797917657</v>
+        <v>0.02014426183312485</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03995781252172327</v>
+        <v>0.04021335640164324</v>
       </c>
     </row>
     <row r="10">
@@ -4281,19 +4281,19 @@
         <v>114907</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95785</v>
+        <v>95227</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133561</v>
+        <v>135562</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1696885597945114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1414507612585595</v>
+        <v>0.140626911776244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1972364290937142</v>
+        <v>0.2001904710552288</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -4302,19 +4302,19 @@
         <v>63831</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48240</v>
+        <v>49057</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80577</v>
+        <v>81289</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1054134927380885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07966576933386743</v>
+        <v>0.081014809175282</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1330673630576301</v>
+        <v>0.1342442950225785</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -4323,19 +4323,19 @@
         <v>178738</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155475</v>
+        <v>154353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205315</v>
+        <v>204873</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1393457430451621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1212096220873525</v>
+        <v>0.1203350357489524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1600654950825822</v>
+        <v>0.1597205558874603</v>
       </c>
     </row>
     <row r="11">
@@ -4352,19 +4352,19 @@
         <v>349320</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322266</v>
+        <v>320748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>376081</v>
+        <v>376191</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5158573830165916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4759050114871546</v>
+        <v>0.4736633128832719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5553768388852963</v>
+        <v>0.5555387682407922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>376</v>
@@ -4373,19 +4373,19 @@
         <v>398163</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>375469</v>
+        <v>374596</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>421983</v>
+        <v>421408</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6575425793330564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6200639999147544</v>
+        <v>0.6186229754101494</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6968791346033827</v>
+        <v>0.6959298794149652</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>712</v>
@@ -4394,19 +4394,19 @@
         <v>747483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>712378</v>
+        <v>710966</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>782061</v>
+        <v>781752</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5827437846153973</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5553753428441504</v>
+        <v>0.5542743667331641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6097013373821389</v>
+        <v>0.6094601718096216</v>
       </c>
     </row>
     <row r="12">
@@ -4423,19 +4423,19 @@
         <v>181356</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>159262</v>
+        <v>159261</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205157</v>
+        <v>204969</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2678175058818274</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2351903607161667</v>
+        <v>0.2351886537098355</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3029656729214104</v>
+        <v>0.3026878414486754</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>129</v>
@@ -4444,19 +4444,19 @@
         <v>138770</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>117379</v>
+        <v>117638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>158632</v>
+        <v>161720</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2291704878876558</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1938438039082531</v>
+        <v>0.1942722622331344</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2619714453037443</v>
+        <v>0.2670708645916757</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>306</v>
@@ -4465,19 +4465,19 @@
         <v>320126</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>288479</v>
+        <v>288244</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>353908</v>
+        <v>351452</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.249573115971249</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2249006610945375</v>
+        <v>0.2247170194847523</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2759091216980107</v>
+        <v>0.2739943862335786</v>
       </c>
     </row>
     <row r="13">
@@ -4569,19 +4569,19 @@
         <v>47447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35075</v>
+        <v>35419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62985</v>
+        <v>62980</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06990971659370708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05168053541183904</v>
+        <v>0.05218797118518292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09280389575519618</v>
+        <v>0.09279713253866981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -4590,19 +4590,19 @@
         <v>11770</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6488</v>
+        <v>5976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21572</v>
+        <v>20659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01668779818915066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009198256304309295</v>
+        <v>0.00847307343442265</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03058577656071018</v>
+        <v>0.02929053444735147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -4611,19 +4611,19 @@
         <v>59217</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>44361</v>
+        <v>44669</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>75558</v>
+        <v>76026</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04278711765909652</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03205271572854321</v>
+        <v>0.03227584380195121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05459448056233051</v>
+        <v>0.05493253682705378</v>
       </c>
     </row>
     <row r="15">
@@ -4640,19 +4640,19 @@
         <v>98969</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82129</v>
+        <v>81506</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118932</v>
+        <v>119442</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1458246237267603</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1210113948256367</v>
+        <v>0.120094001258276</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1752386517199751</v>
+        <v>0.1759899499112244</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>85</v>
@@ -4661,19 +4661,19 @@
         <v>93419</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>76352</v>
+        <v>75137</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>113410</v>
+        <v>112369</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1324533722163441</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1082543082491283</v>
+        <v>0.1065319687494404</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.160797193991438</v>
+        <v>0.1593207440001007</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>181</v>
@@ -4682,19 +4682,19 @@
         <v>192389</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>167793</v>
+        <v>167371</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>224376</v>
+        <v>219439</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1390104557515643</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1212386932530744</v>
+        <v>0.1209340087249078</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1621227061831138</v>
+        <v>0.1585558953450202</v>
       </c>
     </row>
     <row r="16">
@@ -4711,19 +4711,19 @@
         <v>370248</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>344155</v>
+        <v>341365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>396673</v>
+        <v>396786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5455345057331087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5070886632809503</v>
+        <v>0.5029779632534042</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5844704433411083</v>
+        <v>0.5846368018409807</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>463</v>
@@ -4732,19 +4732,19 @@
         <v>492055</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>467672</v>
+        <v>464680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>515385</v>
+        <v>514672</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6976554314311721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6630847653337569</v>
+        <v>0.6588418309328845</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7307331741472917</v>
+        <v>0.7297227222357596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>817</v>
@@ -4753,19 +4753,19 @@
         <v>862303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>823248</v>
+        <v>821837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>895772</v>
+        <v>898966</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.623057356861997</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5948380924445085</v>
+        <v>0.593818533127685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6472408998500858</v>
+        <v>0.6495486984265804</v>
       </c>
     </row>
     <row r="17">
@@ -4782,19 +4782,19 @@
         <v>162024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137610</v>
+        <v>138311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188295</v>
+        <v>186215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.238731153946424</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2027584983785132</v>
+        <v>0.2037916819129648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2774396466339898</v>
+        <v>0.2743747532370131</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -4803,19 +4803,19 @@
         <v>108054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88258</v>
+        <v>91949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126778</v>
+        <v>128767</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1532033981633331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1251363387768304</v>
+        <v>0.1303696661183339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1797508413883738</v>
+        <v>0.182571740768376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>255</v>
@@ -4824,19 +4824,19 @@
         <v>270078</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>242262</v>
+        <v>241734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>304205</v>
+        <v>300075</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1951450697273422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1750468538527269</v>
+        <v>0.1746649600053434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2198033392440766</v>
+        <v>0.2168192344831537</v>
       </c>
     </row>
     <row r="18">
@@ -4928,19 +4928,19 @@
         <v>23608</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15359</v>
+        <v>14883</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35014</v>
+        <v>33277</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03859569827343572</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02511057687517025</v>
+        <v>0.02433183543305501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05724406968663692</v>
+        <v>0.05440360681414406</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4949,19 +4949,19 @@
         <v>4249</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10508</v>
+        <v>10303</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006908155382864815</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001730604612723344</v>
+        <v>0.001734319556453117</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0170822909770359</v>
+        <v>0.01674974835274443</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -4970,19 +4970,19 @@
         <v>27857</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18232</v>
+        <v>18514</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39781</v>
+        <v>40723</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02270722281747533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01486125632465432</v>
+        <v>0.01509140229011104</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03242633998832498</v>
+        <v>0.03319442847512907</v>
       </c>
     </row>
     <row r="20">
@@ -4999,19 +4999,19 @@
         <v>100907</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84620</v>
+        <v>82426</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123161</v>
+        <v>120745</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1649704412452784</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1383422896585959</v>
+        <v>0.1347558995263799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.201351774307191</v>
+        <v>0.1974018108427752</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -5020,19 +5020,19 @@
         <v>70066</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>55497</v>
+        <v>53913</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87374</v>
+        <v>86697</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.11390479264484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09022017818805009</v>
+        <v>0.08764473415729751</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1420413164598094</v>
+        <v>0.1409406973598831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>152</v>
@@ -5041,19 +5041,19 @@
         <v>170974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>146834</v>
+        <v>145268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199776</v>
+        <v>197244</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1393655747766891</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1196883583799321</v>
+        <v>0.1184121155329258</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1628432438005849</v>
+        <v>0.1607787067527344</v>
       </c>
     </row>
     <row r="21">
@@ -5070,19 +5070,19 @@
         <v>326964</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>300782</v>
+        <v>300721</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>353622</v>
+        <v>352883</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5345432172732615</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4917390801500217</v>
+        <v>0.4916397822930526</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.578125126793314</v>
+        <v>0.5769175677868528</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>378</v>
@@ -5091,19 +5091,19 @@
         <v>430214</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>405074</v>
+        <v>404946</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>450973</v>
+        <v>453288</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6993844027925546</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6585155244047969</v>
+        <v>0.6583079697997379</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7331319579477644</v>
+        <v>0.7368954761292118</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>668</v>
@@ -5112,19 +5112,19 @@
         <v>757178</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>721367</v>
+        <v>720680</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>795724</v>
+        <v>792674</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6171963639466833</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5880061244367736</v>
+        <v>0.5874456607915028</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6486166512384496</v>
+        <v>0.6461303192346756</v>
       </c>
     </row>
     <row r="22">
@@ -5141,19 +5141,19 @@
         <v>160191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>137628</v>
+        <v>136392</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>183703</v>
+        <v>186259</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2618906432080244</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2250032421455539</v>
+        <v>0.2229830807703905</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3003307416860339</v>
+        <v>0.3045095617365933</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -5162,19 +5162,19 @@
         <v>110602</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93093</v>
+        <v>90924</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135491</v>
+        <v>132143</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1798026491797405</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1513381927488459</v>
+        <v>0.1478125271938833</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2202637004651985</v>
+        <v>0.2148198221339976</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>237</v>
@@ -5183,19 +5183,19 @@
         <v>270793</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>239976</v>
+        <v>241335</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>303242</v>
+        <v>305409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2207308384591522</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1956108164738387</v>
+        <v>0.1967189598648839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2471807404975035</v>
+        <v>0.2489476250598608</v>
       </c>
     </row>
     <row r="23">
@@ -5287,19 +5287,19 @@
         <v>14345</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7643</v>
+        <v>7949</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22985</v>
+        <v>23374</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03369092128181261</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01794991720136186</v>
+        <v>0.01866878455131182</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05398283825218142</v>
+        <v>0.05489567261771409</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6758</v>
+        <v>6767</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004382095044421268</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01519719104246621</v>
+        <v>0.0152154308994263</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -5329,19 +5329,19 @@
         <v>16294</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8790</v>
+        <v>9366</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24902</v>
+        <v>25835</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01871786394821301</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01009800596588637</v>
+        <v>0.01075908528890671</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02860605233102759</v>
+        <v>0.02967768230120081</v>
       </c>
     </row>
     <row r="25">
@@ -5358,19 +5358,19 @@
         <v>58914</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44768</v>
+        <v>45473</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76658</v>
+        <v>76618</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1383637010578523</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1051410804444389</v>
+        <v>0.1067972262359017</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.180035891358058</v>
+        <v>0.179941883403942</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -5379,19 +5379,19 @@
         <v>42775</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30921</v>
+        <v>30827</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56456</v>
+        <v>56200</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09618338088020136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06953031496603795</v>
+        <v>0.06931728571774061</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1269468154511182</v>
+        <v>0.1263709713487589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -5400,19 +5400,19 @@
         <v>101689</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>81465</v>
+        <v>84038</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120905</v>
+        <v>122951</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1168149584622235</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09358270454077487</v>
+        <v>0.09653899268293593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1388899709225249</v>
+        <v>0.1412396599096027</v>
       </c>
     </row>
     <row r="26">
@@ -5429,19 +5429,19 @@
         <v>242252</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>220478</v>
+        <v>222089</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>262057</v>
+        <v>263794</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5689448032272689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5178069691069301</v>
+        <v>0.5215918789642229</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.615458299238015</v>
+        <v>0.6195383892132558</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>266</v>
@@ -5450,19 +5450,19 @@
         <v>296260</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>277166</v>
+        <v>274921</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>316532</v>
+        <v>316709</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6661738691148857</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6232383756373214</v>
+        <v>0.6181892615957403</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7117580996188985</v>
+        <v>0.7121544625770474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>489</v>
@@ -5471,19 +5471,19 @@
         <v>538512</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>509121</v>
+        <v>510422</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>568641</v>
+        <v>569516</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6186164061169928</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5848537953537627</v>
+        <v>0.5863479014683811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6532277464126764</v>
+        <v>0.6542330124545565</v>
       </c>
     </row>
     <row r="27">
@@ -5500,19 +5500,19 @@
         <v>110280</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>91910</v>
+        <v>92972</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>130369</v>
+        <v>129343</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2590005744330662</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2158570325962212</v>
+        <v>0.2183521033818949</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3061808717893605</v>
+        <v>0.3037718223158759</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>95</v>
@@ -5521,19 +5521,19 @@
         <v>103735</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>85420</v>
+        <v>85251</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>122134</v>
+        <v>122781</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2332606549604916</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1920773386144818</v>
+        <v>0.1916960680094628</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.274632909148946</v>
+        <v>0.2760875937105898</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>196</v>
@@ -5542,19 +5542,19 @@
         <v>214016</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>187673</v>
+        <v>189214</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>240640</v>
+        <v>239809</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2458507714725707</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2155894648154866</v>
+        <v>0.2173594985245417</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2764362026729169</v>
+        <v>0.2754811708695839</v>
       </c>
     </row>
     <row r="28">
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6992</v>
+        <v>6164</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006580345069307598</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02265025422970195</v>
+        <v>0.01996729347605838</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6835</v>
+        <v>7156</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003083102540000318</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01037473634225936</v>
+        <v>0.01086116786345622</v>
       </c>
     </row>
     <row r="30">
@@ -5709,19 +5709,19 @@
         <v>17343</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10037</v>
+        <v>9877</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27176</v>
+        <v>26950</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0561839652295676</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03251647055436134</v>
+        <v>0.03199510949785117</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08803622633630308</v>
+        <v>0.087305600691651</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -5730,19 +5730,19 @@
         <v>12667</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6805</v>
+        <v>6679</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22351</v>
+        <v>22340</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03617671719591568</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01943425570900707</v>
+        <v>0.0190731486589856</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06383202286896557</v>
+        <v>0.06380144154569431</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -5751,19 +5751,19 @@
         <v>30011</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19735</v>
+        <v>20468</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>41269</v>
+        <v>42577</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0455507540558792</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0299542435317089</v>
+        <v>0.0310667465211435</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06263903483627564</v>
+        <v>0.06462384851092613</v>
       </c>
     </row>
     <row r="31">
@@ -5780,19 +5780,19 @@
         <v>156683</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>137683</v>
+        <v>134951</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>175419</v>
+        <v>174182</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5075774495635762</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4460267320129743</v>
+        <v>0.4371759568913653</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5682721743175795</v>
+        <v>0.5642643407128933</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>194</v>
@@ -5801,19 +5801,19 @@
         <v>199403</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>180516</v>
+        <v>179346</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>216986</v>
+        <v>218618</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5694752559840219</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5155357873961294</v>
+        <v>0.5121939527161178</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6196909448489629</v>
+        <v>0.6243525324237132</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>342</v>
@@ -5822,19 +5822,19 @@
         <v>356086</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>327953</v>
+        <v>329968</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>381006</v>
+        <v>383940</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.540474150086789</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4977728781592848</v>
+        <v>0.5008324593190829</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5782978220421922</v>
+        <v>0.5827510552539421</v>
       </c>
     </row>
     <row r="32">
@@ -5851,19 +5851,19 @@
         <v>132630</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>115328</v>
+        <v>115745</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>151735</v>
+        <v>156776</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4296582401375486</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3736057417448007</v>
+        <v>0.3749566351455744</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4915473319029972</v>
+        <v>0.50787735678157</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>134</v>
@@ -5872,19 +5872,19 @@
         <v>138082</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>121044</v>
+        <v>118542</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>156870</v>
+        <v>156796</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3943480268200624</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3456899946063933</v>
+        <v>0.3385456051301628</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4480051462163109</v>
+        <v>0.4477931199233388</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>249</v>
@@ -5893,19 +5893,19 @@
         <v>270712</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>245466</v>
+        <v>245259</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>297225</v>
+        <v>298645</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4108919933173315</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.372573263896772</v>
+        <v>0.3722586192018282</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4511335999679339</v>
+        <v>0.4532891858863175</v>
       </c>
     </row>
     <row r="33">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5471</v>
+        <v>5566</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00435897761689696</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02199806779533494</v>
+        <v>0.02238239831058894</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7058</v>
+        <v>5434</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001702953614574666</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01108753108980834</v>
+        <v>0.008536784169855502</v>
       </c>
     </row>
     <row r="35">
@@ -6060,19 +6060,19 @@
         <v>9845</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4383</v>
+        <v>4513</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17859</v>
+        <v>17860</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03958818543724994</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01762479610100208</v>
+        <v>0.01814636707567922</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07181034321540528</v>
+        <v>0.07181291247344478</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -6081,19 +6081,19 @@
         <v>11194</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5707</v>
+        <v>5616</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19332</v>
+        <v>19558</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02885917999405106</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01471428636983486</v>
+        <v>0.0144776164274115</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04984058858799272</v>
+        <v>0.05042234164291238</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>19</v>
@@ -6102,19 +6102,19 @@
         <v>21039</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13032</v>
+        <v>13180</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32110</v>
+        <v>31513</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03305075889307129</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02047163553089521</v>
+        <v>0.02070491668960066</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05044159350476366</v>
+        <v>0.04950356370553149</v>
       </c>
     </row>
     <row r="36">
@@ -6131,19 +6131,19 @@
         <v>94639</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79253</v>
+        <v>79950</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>111760</v>
+        <v>112063</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3805418489508123</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3186743419947846</v>
+        <v>0.3214749705531602</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4493841143616814</v>
+        <v>0.4506039102486267</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>109</v>
@@ -6152,19 +6152,19 @@
         <v>120787</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>104422</v>
+        <v>100691</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>141732</v>
+        <v>140925</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3114015518943903</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.26921147077906</v>
+        <v>0.2595932900166192</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3654016548843166</v>
+        <v>0.3633197127139581</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>194</v>
@@ -6173,19 +6173,19 @@
         <v>215426</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>190494</v>
+        <v>190165</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>241876</v>
+        <v>239701</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3384130966035411</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2992464281968622</v>
+        <v>0.2987295391048605</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3799621943402787</v>
+        <v>0.376546492037706</v>
       </c>
     </row>
     <row r="37">
@@ -6202,19 +6202,19 @@
         <v>143127</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>125875</v>
+        <v>124950</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>160195</v>
+        <v>158078</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5755109879950407</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5061386620865457</v>
+        <v>0.5024200738562162</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6441386698101755</v>
+        <v>0.635626190423065</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>230</v>
@@ -6223,19 +6223,19 @@
         <v>255900</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>235265</v>
+        <v>235544</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>273852</v>
+        <v>275423</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6597392681115586</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6065378999220005</v>
+        <v>0.6072571983080677</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7060216980115538</v>
+        <v>0.7100703178258113</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>356</v>
@@ -6244,19 +6244,19 @@
         <v>399028</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>373655</v>
+        <v>374667</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>426898</v>
+        <v>426396</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6268331908888128</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5869749382591111</v>
+        <v>0.5885638292812045</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6706145661006109</v>
+        <v>0.6698258980308389</v>
       </c>
     </row>
     <row r="38">
@@ -6348,19 +6348,19 @@
         <v>137666</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>116056</v>
+        <v>116742</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>163940</v>
+        <v>164886</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04045390667708208</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03410367351709866</v>
+        <v>0.03430531483470732</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04817449958421983</v>
+        <v>0.04845270943860773</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>22</v>
@@ -6369,19 +6369,19 @@
         <v>23793</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>15178</v>
+        <v>15716</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>36097</v>
+        <v>34782</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.006735461333052977</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004296639091594023</v>
+        <v>0.004449032563658473</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01021841052585506</v>
+        <v>0.009846205180528643</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>154</v>
@@ -6390,19 +6390,19 @@
         <v>161460</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>138451</v>
+        <v>134998</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>190996</v>
+        <v>187130</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02327983785197678</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01996230826152902</v>
+        <v>0.019464575422729</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02753852479760413</v>
+        <v>0.02698114478170509</v>
       </c>
     </row>
     <row r="40">
@@ -6419,19 +6419,19 @@
         <v>461133</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>419100</v>
+        <v>417225</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>503802</v>
+        <v>503146</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1355063500276079</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1231547514476538</v>
+        <v>0.122603714239051</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1480448965378152</v>
+        <v>0.1478521012757231</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>303</v>
@@ -6440,19 +6440,19 @@
         <v>329427</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>294463</v>
+        <v>291090</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>368175</v>
+        <v>367882</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09325457892178005</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08335679820470775</v>
+        <v>0.08240201391912912</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1042233021629797</v>
+        <v>0.104140404194232</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>737</v>
@@ -6461,19 +6461,19 @@
         <v>790561</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>738030</v>
+        <v>737479</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>850401</v>
+        <v>849018</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1139859383493578</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1064119115537841</v>
+        <v>0.1063323966256892</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1226139224999865</v>
+        <v>0.1224146041480724</v>
       </c>
     </row>
     <row r="41">
@@ -6490,19 +6490,19 @@
         <v>1727916</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1663329</v>
+        <v>1668046</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1785867</v>
+        <v>1789934</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5077570307431867</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4887776704461981</v>
+        <v>0.4901637723460523</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5247859838206179</v>
+        <v>0.5259811140557372</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1985</v>
@@ -6511,19 +6511,19 @@
         <v>2140860</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2080189</v>
+        <v>2084985</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2201516</v>
+        <v>2203685</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.6060365070861425</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5888615491993443</v>
+        <v>0.5902192194881354</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6232068487309652</v>
+        <v>0.6238208660240042</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3605</v>
@@ -6532,19 +6532,19 @@
         <v>3868777</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3784465</v>
+        <v>3783826</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3953186</v>
+        <v>3948510</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5578144540196166</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.545658111982631</v>
+        <v>0.5455659706286526</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.569984935888878</v>
+        <v>0.5693106097261661</v>
       </c>
     </row>
     <row r="42">
@@ -6561,19 +6561,19 @@
         <v>1076322</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3162827125521234</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>964</v>
@@ -6582,19 +6582,19 @@
         <v>1038479</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2939734526590244</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1964</v>
@@ -6603,19 +6603,19 @@
         <v>2114801</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3049197697790488</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
     </row>
     <row r="43">
@@ -6950,19 +6950,19 @@
         <v>10290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5115</v>
+        <v>5232</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17607</v>
+        <v>18931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02465079336421346</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01225294599279035</v>
+        <v>0.01253344728582517</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04217651279584499</v>
+        <v>0.0453479996150404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4467</v>
+        <v>4742</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0022365998330697</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01128649408642757</v>
+        <v>0.01198143805368339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -6992,19 +6992,19 @@
         <v>11176</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5951</v>
+        <v>5890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18462</v>
+        <v>19883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01374267833860284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007318345800561399</v>
+        <v>0.007243471595987237</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02270337246694649</v>
+        <v>0.02445032411516158</v>
       </c>
     </row>
     <row r="5">
@@ -7021,19 +7021,19 @@
         <v>48662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36500</v>
+        <v>37020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63750</v>
+        <v>63437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1165689787484379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08743469615665801</v>
+        <v>0.08868161276039982</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1527129374949139</v>
+        <v>0.1519639755047904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -7042,19 +7042,19 @@
         <v>29986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21108</v>
+        <v>20475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41667</v>
+        <v>40926</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07576942975467221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05333644244156882</v>
+        <v>0.05173570679282264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1052851340851391</v>
+        <v>0.1034119627427883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -7063,19 +7063,19 @@
         <v>78648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63084</v>
+        <v>63684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96047</v>
+        <v>97273</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09671342727393779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07757442264235478</v>
+        <v>0.07831257304240517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1181095851642834</v>
+        <v>0.11961630703667</v>
       </c>
     </row>
     <row r="6">
@@ -7092,19 +7092,19 @@
         <v>196690</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>176179</v>
+        <v>174389</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>216741</v>
+        <v>216678</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4711697498100367</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4220367010665197</v>
+        <v>0.4177480334853439</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5192023163479781</v>
+        <v>0.5190516115553591</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>215</v>
@@ -7113,19 +7113,19 @@
         <v>209188</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>190773</v>
+        <v>189096</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>228315</v>
+        <v>228819</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.528579451559788</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4820486565344063</v>
+        <v>0.4778097909802471</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.576909685339304</v>
+        <v>0.5781830709574677</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>401</v>
@@ -7134,19 +7134,19 @@
         <v>405878</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>379584</v>
+        <v>377306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>431484</v>
+        <v>434216</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.499108815714958</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4667751939514191</v>
+        <v>0.4639739486895765</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5305966843234117</v>
+        <v>0.5339558128504021</v>
       </c>
     </row>
     <row r="7">
@@ -7163,19 +7163,19 @@
         <v>161808</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>141568</v>
+        <v>143271</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>181300</v>
+        <v>184634</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.387610478077312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3391246889661715</v>
+        <v>0.343204252116491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4343026001653392</v>
+        <v>0.4422909451720948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>159</v>
@@ -7184,19 +7184,19 @@
         <v>155696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138523</v>
+        <v>136466</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175232</v>
+        <v>176700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.39341451885247</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3500213094799642</v>
+        <v>0.3448232965358985</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4427778279140896</v>
+        <v>0.4464893195546314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>309</v>
@@ -7205,19 +7205,19 @@
         <v>317504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>292597</v>
+        <v>289841</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>344924</v>
+        <v>344088</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3904350786725013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.359807444054533</v>
+        <v>0.356417879975346</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4241543505498435</v>
+        <v>0.423125549848197</v>
       </c>
     </row>
     <row r="8">
@@ -7309,19 +7309,19 @@
         <v>29388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19568</v>
+        <v>20114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41795</v>
+        <v>41899</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05023912488697083</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03345172750599949</v>
+        <v>0.03438459281216653</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07144807986996049</v>
+        <v>0.07162547560588128</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -7330,19 +7330,19 @@
         <v>4531</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1655</v>
+        <v>1752</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10067</v>
+        <v>9917</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00806686561657205</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0029461254751947</v>
+        <v>0.003118213587036568</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0179215692727345</v>
+        <v>0.01765521226749537</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -7351,19 +7351,19 @@
         <v>33920</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24348</v>
+        <v>24116</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>45986</v>
+        <v>47192</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02958053988640526</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02123375577297402</v>
+        <v>0.02103105510180273</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04010356718394587</v>
+        <v>0.04115487368883305</v>
       </c>
     </row>
     <row r="10">
@@ -7380,19 +7380,19 @@
         <v>95007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77501</v>
+        <v>79230</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115151</v>
+        <v>113697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1624142954039072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1324882170324637</v>
+        <v>0.1354433109960295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1968500747925508</v>
+        <v>0.194363885484408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -7401,19 +7401,19 @@
         <v>55017</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42538</v>
+        <v>42372</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69403</v>
+        <v>69044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0979440291838628</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07572784598323513</v>
+        <v>0.07543189538416153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1235543639130389</v>
+        <v>0.1229161117635209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -7422,19 +7422,19 @@
         <v>150024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130619</v>
+        <v>130191</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173691</v>
+        <v>172134</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1308327653232855</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1139094803105076</v>
+        <v>0.1135366264142541</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1514719859861548</v>
+        <v>0.1501139279455069</v>
       </c>
     </row>
     <row r="11">
@@ -7451,19 +7451,19 @@
         <v>302979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278812</v>
+        <v>280004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327734</v>
+        <v>328248</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5179400883483883</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4766274236429782</v>
+        <v>0.4786651853515086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5602580243189293</v>
+        <v>0.5611376871244733</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>382</v>
@@ -7472,19 +7472,19 @@
         <v>370997</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>349120</v>
+        <v>349641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>393814</v>
+        <v>393511</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6604675128061637</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6215209356228627</v>
+        <v>0.622448239902738</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7010879858131023</v>
+        <v>0.700547777302838</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>676</v>
@@ -7493,19 +7493,19 @@
         <v>673976</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>638859</v>
+        <v>641752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>705166</v>
+        <v>705500</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5877588498758116</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5571342020887724</v>
+        <v>0.5596569964761788</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6149586955567721</v>
+        <v>0.6152500712817202</v>
       </c>
     </row>
     <row r="12">
@@ -7522,19 +7522,19 @@
         <v>157594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>135576</v>
+        <v>136017</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>177005</v>
+        <v>178886</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2694064913607336</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2317655254965532</v>
+        <v>0.2325200363998373</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3025892858726291</v>
+        <v>0.3058041632510053</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -7543,19 +7543,19 @@
         <v>131174</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>111766</v>
+        <v>111724</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>150327</v>
+        <v>150104</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2335215923934015</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1989713803186196</v>
+        <v>0.1988967231216576</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2676190568922869</v>
+        <v>0.2672224676745955</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>285</v>
@@ -7564,19 +7564,19 @@
         <v>288768</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>260556</v>
+        <v>259638</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>320804</v>
+        <v>318220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2518278449144976</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2272247950831018</v>
+        <v>0.2264239322122371</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2797658868579601</v>
+        <v>0.2775118735249787</v>
       </c>
     </row>
     <row r="13">
@@ -7668,19 +7668,19 @@
         <v>27855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17705</v>
+        <v>18840</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39438</v>
+        <v>41703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04175062043851693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02653807867544839</v>
+        <v>0.02823908740730658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05911182347155766</v>
+        <v>0.06250682712417151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -7689,19 +7689,19 @@
         <v>4650</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10209</v>
+        <v>10346</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00705147165735877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002696400354471403</v>
+        <v>0.002704846198176519</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01548282910884589</v>
+        <v>0.01569062277247589</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -7710,19 +7710,19 @@
         <v>32505</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22434</v>
+        <v>24065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45247</v>
+        <v>46268</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02450270634840672</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01691091347421084</v>
+        <v>0.01814068121761953</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03410804142849049</v>
+        <v>0.0348779721151035</v>
       </c>
     </row>
     <row r="15">
@@ -7739,19 +7739,19 @@
         <v>98026</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81555</v>
+        <v>81149</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118801</v>
+        <v>120825</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1469275754479469</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1222405187851323</v>
+        <v>0.1216309012780895</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1780667946756876</v>
+        <v>0.1811009245473434</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -7760,19 +7760,19 @@
         <v>80822</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>65677</v>
+        <v>64379</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>97930</v>
+        <v>99086</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1225696411781212</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09960058226355743</v>
+        <v>0.0976323691416878</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1485142386012037</v>
+        <v>0.1502672290797053</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>171</v>
@@ -7781,19 +7781,19 @@
         <v>178848</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>154984</v>
+        <v>153867</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>204872</v>
+        <v>204693</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.134819971300417</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1168307529882018</v>
+        <v>0.1159886358303541</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1544375042665606</v>
+        <v>0.1543023600340868</v>
       </c>
     </row>
     <row r="16">
@@ -7810,19 +7810,19 @@
         <v>362581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>337333</v>
+        <v>337045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>387900</v>
+        <v>388170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5434600551952913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5056155128879467</v>
+        <v>0.5051849078801693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5814099403312799</v>
+        <v>0.5818135466227983</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>451</v>
@@ -7831,19 +7831,19 @@
         <v>448900</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>425335</v>
+        <v>424800</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>472988</v>
+        <v>473646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6807718320801965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6450346789315254</v>
+        <v>0.6442224314868854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.717301304220969</v>
+        <v>0.7182995165759595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>801</v>
@@ -7852,19 +7852,19 @@
         <v>811482</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>774192</v>
+        <v>771725</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>847359</v>
+        <v>843289</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6117136526021894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5836037029251256</v>
+        <v>0.5817437304699241</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.63875818026136</v>
+        <v>0.6356906185462216</v>
       </c>
     </row>
     <row r="17">
@@ -7881,19 +7881,19 @@
         <v>178710</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>158158</v>
+        <v>156555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202946</v>
+        <v>202200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2678617489182449</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2370570256935862</v>
+        <v>0.2346542744189746</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3041877361606301</v>
+        <v>0.3030700084555972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -7902,19 +7902,19 @@
         <v>125027</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105506</v>
+        <v>105233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>145486</v>
+        <v>145655</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1896070550843235</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1600026176248351</v>
+        <v>0.1595895638255759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2206337205600121</v>
+        <v>0.2208908311064743</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>296</v>
@@ -7923,19 +7923,19 @@
         <v>303737</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>275683</v>
+        <v>272671</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>333515</v>
+        <v>336329</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2289636697489869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2078159888741337</v>
+        <v>0.205545393672393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2514114589678721</v>
+        <v>0.2535323850113811</v>
       </c>
     </row>
     <row r="18">
@@ -8027,19 +8027,19 @@
         <v>17345</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10139</v>
+        <v>9952</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28894</v>
+        <v>27516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02731506114049016</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01596746146268252</v>
+        <v>0.01567214727156026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04550160480716609</v>
+        <v>0.04333187051089069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8048,19 +8048,19 @@
         <v>3143</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8499</v>
+        <v>9345</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004881411999648186</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001568416447965666</v>
+        <v>0.001580773997184883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0132015253521617</v>
+        <v>0.01451457438217853</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -8069,19 +8069,19 @@
         <v>20488</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11988</v>
+        <v>12950</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31429</v>
+        <v>32949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01602099634313187</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009374140826052533</v>
+        <v>0.01012640363345071</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02457633823356566</v>
+        <v>0.02576498868528451</v>
       </c>
     </row>
     <row r="20">
@@ -8098,19 +8098,19 @@
         <v>71487</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>56477</v>
+        <v>56812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89118</v>
+        <v>89077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1125764757164321</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08893990423037075</v>
+        <v>0.08946735225207471</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1403416793000052</v>
+        <v>0.140277461268709</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -8119,19 +8119,19 @@
         <v>54087</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41656</v>
+        <v>40009</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71077</v>
+        <v>69510</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08400982693373801</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06470159409123426</v>
+        <v>0.06214345085546079</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1104007035127171</v>
+        <v>0.1079655625522342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -8140,19 +8140,19 @@
         <v>125573</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>103720</v>
+        <v>104957</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>147984</v>
+        <v>149841</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09819479485971642</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08110596460333405</v>
+        <v>0.0820736690137582</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1157190142871007</v>
+        <v>0.1171716304191768</v>
       </c>
     </row>
     <row r="21">
@@ -8169,19 +8169,19 @@
         <v>343688</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>317671</v>
+        <v>316418</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>368025</v>
+        <v>366928</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5412352034172565</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5002634712037238</v>
+        <v>0.4982905111223739</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5795613059675867</v>
+        <v>0.5778335915880234</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>424</v>
@@ -8190,19 +8190,19 @@
         <v>452471</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>429236</v>
+        <v>427642</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>474417</v>
+        <v>476143</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7027985786289483</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6667093279076055</v>
+        <v>0.6642337946303354</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7368866388442539</v>
+        <v>0.7395669243321475</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>734</v>
@@ -8211,19 +8211,19 @@
         <v>796158</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>759794</v>
+        <v>757804</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>833336</v>
+        <v>835673</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.622573162171312</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.594137191844743</v>
+        <v>0.5925811523960665</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6516452075809502</v>
+        <v>0.6534728124466794</v>
       </c>
     </row>
     <row r="22">
@@ -8240,19 +8240,19 @@
         <v>202487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>177865</v>
+        <v>179773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>227875</v>
+        <v>227701</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3188732597258213</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2800985817012566</v>
+        <v>0.2831044539984194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3588539957386644</v>
+        <v>0.3585808152748804</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -8261,19 +8261,19 @@
         <v>134113</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113802</v>
+        <v>111786</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>155453</v>
+        <v>156740</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2083101824376655</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1767621308445484</v>
+        <v>0.1736304605029474</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2414568130387089</v>
+        <v>0.2434555536631418</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>304</v>
@@ -8282,19 +8282,19 @@
         <v>336599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>304332</v>
+        <v>303274</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>371086</v>
+        <v>371144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2632110466258397</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2379789946122211</v>
+        <v>0.2371514890288211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2901785154420493</v>
+        <v>0.2902237808931873</v>
       </c>
     </row>
     <row r="23">
@@ -8386,19 +8386,19 @@
         <v>5650</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2103</v>
+        <v>1999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13141</v>
+        <v>12941</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01187490110300137</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00441967921343257</v>
+        <v>0.004200747049577096</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02762168638528743</v>
+        <v>0.027201488746412</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5637</v>
+        <v>5623</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002259335020043213</v>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01141881430757326</v>
+        <v>0.01139027158294567</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -8428,19 +8428,19 @@
         <v>6765</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2678</v>
+        <v>2227</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15105</v>
+        <v>13573</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006978317895690742</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0027629831098085</v>
+        <v>0.002297590676850985</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0155815713448712</v>
+        <v>0.01400077578681523</v>
       </c>
     </row>
     <row r="25">
@@ -8457,19 +8457,19 @@
         <v>50595</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36956</v>
+        <v>37478</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64294</v>
+        <v>66305</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1063455932127061</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07767922370986907</v>
+        <v>0.07877573629074658</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1351411050220677</v>
+        <v>0.1393671157753474</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -8478,19 +8478,19 @@
         <v>25341</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16687</v>
+        <v>16056</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38016</v>
+        <v>36682</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05133226847720769</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03380201986977619</v>
+        <v>0.03252401756057932</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0770082935761344</v>
+        <v>0.07430525577821573</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -8499,19 +8499,19 @@
         <v>75935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58979</v>
+        <v>59317</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93818</v>
+        <v>94044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07833088042781973</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06083985122528164</v>
+        <v>0.06118809693918711</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09677812677608834</v>
+        <v>0.09701126747098963</v>
       </c>
     </row>
     <row r="26">
@@ -8528,19 +8528,19 @@
         <v>237060</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>213311</v>
+        <v>213936</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>258982</v>
+        <v>257799</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4982816114541258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4483628644670834</v>
+        <v>0.4496757235012019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.544359438012565</v>
+        <v>0.5418730746481222</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>287</v>
@@ -8549,19 +8549,19 @@
         <v>328106</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>306598</v>
+        <v>307666</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>352023</v>
+        <v>350549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6646375272071099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6210700184210656</v>
+        <v>0.6232332060708353</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.713087514889941</v>
+        <v>0.7101012131837339</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>499</v>
@@ -8570,19 +8570,19 @@
         <v>565166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>532943</v>
+        <v>533189</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>597002</v>
+        <v>600101</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.58299587335874</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5497561773699363</v>
+        <v>0.5500104516363552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6158357805651068</v>
+        <v>0.6190333446759831</v>
       </c>
     </row>
     <row r="27">
@@ -8599,19 +8599,19 @@
         <v>182451</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>158261</v>
+        <v>161320</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>205220</v>
+        <v>204912</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3834978942301668</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3326523508113355</v>
+        <v>0.3390807779464818</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4313554231141482</v>
+        <v>0.4307075956548863</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>120</v>
@@ -8620,19 +8620,19 @@
         <v>139099</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>118527</v>
+        <v>118959</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>161312</v>
+        <v>159304</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2817708692956392</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2400981542051187</v>
+        <v>0.2409726115060298</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3267664813598104</v>
+        <v>0.3226999414318769</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>280</v>
@@ -8641,19 +8641,19 @@
         <v>321551</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>290898</v>
+        <v>291029</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>350387</v>
+        <v>353263</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3316949283177495</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3000750147516594</v>
+        <v>0.3002105682540234</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3614413341967975</v>
+        <v>0.3644073035389109</v>
       </c>
     </row>
     <row r="28">
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10490</v>
+        <v>10668</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007428717806976074</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02784490761356246</v>
+        <v>0.02831717021847985</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10473</v>
+        <v>10231</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00394644189667404</v>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01476799212772512</v>
+        <v>0.01442722444840737</v>
       </c>
     </row>
     <row r="30">
@@ -8808,19 +8808,19 @@
         <v>17488</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11063</v>
+        <v>11086</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26665</v>
+        <v>25907</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05260827634558009</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03327987250198023</v>
+        <v>0.03335090852093094</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08021539146601125</v>
+        <v>0.07793486182174597</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -8829,19 +8829,19 @@
         <v>14678</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8478</v>
+        <v>8193</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24170</v>
+        <v>23766</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03896261566700627</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02250413665761965</v>
+        <v>0.02174749690524135</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06415906192600138</v>
+        <v>0.06308498672574028</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>32</v>
@@ -8850,19 +8850,19 @@
         <v>32166</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22975</v>
+        <v>22454</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>44306</v>
+        <v>44068</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04535913747545762</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03239768695775178</v>
+        <v>0.03166411557058538</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0624786987100167</v>
+        <v>0.06214277176567885</v>
       </c>
     </row>
     <row r="31">
@@ -8879,19 +8879,19 @@
         <v>138870</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>119197</v>
+        <v>121572</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>156056</v>
+        <v>157569</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4177576467146723</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3585750063060572</v>
+        <v>0.3657197243847183</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4694563516808659</v>
+        <v>0.4740079119353035</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>187</v>
@@ -8900,19 +8900,19 @@
         <v>197580</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>176715</v>
+        <v>178233</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>216566</v>
+        <v>218506</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5244636141692481</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4690794778751011</v>
+        <v>0.4731086049278511</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.574860785905302</v>
+        <v>0.580012735865838</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>323</v>
@@ -8921,19 +8921,19 @@
         <v>336450</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>308346</v>
+        <v>310890</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>362914</v>
+        <v>364609</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4744442663346051</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4348132365300916</v>
+        <v>0.4384006654549223</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.511762439859901</v>
+        <v>0.5141527632928479</v>
       </c>
     </row>
     <row r="32">
@@ -8950,19 +8950,19 @@
         <v>176060</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>159706</v>
+        <v>156198</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>195672</v>
+        <v>193068</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5296340769397476</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4804379017178171</v>
+        <v>0.4698851221183457</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5886336987440162</v>
+        <v>0.5807994888779577</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>150</v>
@@ -8971,19 +8971,19 @@
         <v>161671</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>142861</v>
+        <v>141742</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>182078</v>
+        <v>181517</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4291450523567696</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3792171137829153</v>
+        <v>0.3762469848254146</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4833153198087843</v>
+        <v>0.4818259600293218</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>319</v>
@@ -8992,19 +8992,19 @@
         <v>337730</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>311673</v>
+        <v>308306</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>365624</v>
+        <v>363083</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4762501542932632</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4395050588805369</v>
+        <v>0.4347576990700479</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5155837276163793</v>
+        <v>0.5120003729663588</v>
       </c>
     </row>
     <row r="33">
@@ -9143,19 +9143,19 @@
         <v>7353</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3325</v>
+        <v>3276</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13450</v>
+        <v>13031</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02880107902161936</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01302424040015174</v>
+        <v>0.01283126028749181</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05268100290212616</v>
+        <v>0.05103728690059207</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -9164,19 +9164,19 @@
         <v>5220</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13196</v>
+        <v>11721</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01312948456389518</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003319408308474526</v>
+        <v>0.003302528680781585</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03318841660257608</v>
+        <v>0.02948026103784757</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -9185,19 +9185,19 @@
         <v>12574</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6669</v>
+        <v>6952</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21504</v>
+        <v>23097</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01925767293594437</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01021455006507308</v>
+        <v>0.01064721276709817</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03293599164960053</v>
+        <v>0.03537570854950473</v>
       </c>
     </row>
     <row r="36">
@@ -9214,19 +9214,19 @@
         <v>73763</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>60805</v>
+        <v>60064</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>87775</v>
+        <v>87239</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2889123572845523</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2381561505706815</v>
+        <v>0.2352547341071873</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3437929469706427</v>
+        <v>0.3416929071029519</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>101</v>
@@ -9235,19 +9235,19 @@
         <v>132400</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>111662</v>
+        <v>111268</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>157933</v>
+        <v>153384</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3329999066541287</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2808417446516705</v>
+        <v>0.2798492766419814</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3972168935022799</v>
+        <v>0.3857764940725342</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>189</v>
@@ -9256,19 +9256,19 @@
         <v>206164</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>183527</v>
+        <v>180937</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>233844</v>
+        <v>232607</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3157600011596614</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2810893557797752</v>
+        <v>0.2771223097132665</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3581552952559645</v>
+        <v>0.3562609803221304</v>
       </c>
     </row>
     <row r="37">
@@ -9285,19 +9285,19 @@
         <v>174197</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>161053</v>
+        <v>160545</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>188150</v>
+        <v>187477</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6822865636938283</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6308028268456439</v>
+        <v>0.6288158805964791</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7369375409465402</v>
+        <v>0.734300895083881</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>194</v>
@@ -9306,19 +9306,19 @@
         <v>259978</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>234569</v>
+        <v>238236</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>280406</v>
+        <v>281873</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6538706087819761</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5899646041653906</v>
+        <v>0.5991867252773434</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7052494895882062</v>
+        <v>0.7089370794518055</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>397</v>
@@ -9327,19 +9327,19 @@
         <v>434176</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>406397</v>
+        <v>406234</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>457731</v>
+        <v>459839</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6649823259043943</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6224369019483105</v>
+        <v>0.6221867858270681</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7010591890952105</v>
+        <v>0.7042887795911845</v>
       </c>
     </row>
     <row r="38">
@@ -9431,19 +9431,19 @@
         <v>90528</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>72898</v>
+        <v>71337</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>113334</v>
+        <v>109956</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02687831748861133</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02164373950600001</v>
+        <v>0.02118039917804263</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03364952431854853</v>
+        <v>0.03264642371496126</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>17</v>
@@ -9452,19 +9452,19 @@
         <v>17123</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>10765</v>
+        <v>10404</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>28742</v>
+        <v>27011</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.004852489886282441</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0030506347268034</v>
+        <v>0.00294848017554588</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.008145375624871011</v>
+        <v>0.007654653192280763</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>101</v>
@@ -9473,19 +9473,19 @@
         <v>107651</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>88321</v>
+        <v>87053</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>128177</v>
+        <v>128700</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01560897279885326</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01280615710367248</v>
+        <v>0.01262236018947608</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01858503724596393</v>
+        <v>0.01866095734595519</v>
       </c>
     </row>
     <row r="40">
@@ -9502,19 +9502,19 @@
         <v>388618</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>353362</v>
+        <v>352602</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>426875</v>
+        <v>423844</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1153823644081584</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.104914767412393</v>
+        <v>0.1046892684813011</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1267412226214286</v>
+        <v>0.1258412597015008</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>257</v>
@@ -9523,19 +9523,19 @@
         <v>265151</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>234059</v>
+        <v>232150</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>295823</v>
+        <v>296200</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0751419405566686</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06633068477343654</v>
+        <v>0.06578970374473259</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08383410557736599</v>
+        <v>0.08394095141869183</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>616</v>
@@ -9544,19 +9544,19 @@
         <v>653769</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>603846</v>
+        <v>607101</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>705694</v>
+        <v>702418</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09479366213408577</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08755509052897295</v>
+        <v>0.0880270119830607</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1023225171723847</v>
+        <v>0.1018475377095073</v>
       </c>
     </row>
     <row r="41">
@@ -9573,19 +9573,19 @@
         <v>1655632</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1596564</v>
+        <v>1598337</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1714634</v>
+        <v>1710559</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4915647164076367</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4740273667410918</v>
+        <v>0.4745537403639147</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5090828734285695</v>
+        <v>0.5078729978770817</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2047</v>
@@ -9594,19 +9594,19 @@
         <v>2139642</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2081088</v>
+        <v>2077966</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2203476</v>
+        <v>2196697</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.6063587589798041</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5897649660030495</v>
+        <v>0.5888802983948709</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6244490101095006</v>
+        <v>0.6225278016258503</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3623</v>
@@ -9615,19 +9615,19 @@
         <v>3795274</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3708317</v>
+        <v>3708893</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3877145</v>
+        <v>3884689</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5502982022694679</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5376899456361238</v>
+        <v>0.5377733535135819</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5621692797723443</v>
+        <v>0.5632630065266834</v>
       </c>
     </row>
     <row r="42">
@@ -9644,19 +9644,19 @@
         <v>1233307</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3661746016955936</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1002</v>
@@ -9665,19 +9665,19 @@
         <v>1106757</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3136468105772449</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2190</v>
@@ -9686,19 +9686,19 @@
         <v>2340064</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3392991627975931</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
     </row>
     <row r="43">
@@ -10033,19 +10033,19 @@
         <v>24663</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12675</v>
+        <v>12988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44283</v>
+        <v>44142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06200174813806323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03186367859711298</v>
+        <v>0.03265100096632265</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1113242356033115</v>
+        <v>0.1109697008068113</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -10054,19 +10054,19 @@
         <v>8710</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3428</v>
+        <v>3207</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18464</v>
+        <v>18892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02427384313103906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00955456570517892</v>
+        <v>0.008938194586770783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05145900795933255</v>
+        <v>0.05265221370524792</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -10075,19 +10075,19 @@
         <v>33373</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20536</v>
+        <v>19845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53408</v>
+        <v>53276</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04410939903579094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02714209877925954</v>
+        <v>0.02622956644768816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07059015045392612</v>
+        <v>0.07041527292051808</v>
       </c>
     </row>
     <row r="5">
@@ -10104,19 +10104,19 @@
         <v>76729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53398</v>
+        <v>51803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104348</v>
+        <v>102098</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1928934674162307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1342385462060258</v>
+        <v>0.1302300437059067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2623252965359599</v>
+        <v>0.2566687584344199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -10125,19 +10125,19 @@
         <v>38960</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24225</v>
+        <v>25067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58243</v>
+        <v>57509</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1085803010369963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06751343423270818</v>
+        <v>0.06986151655117714</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1623229275217798</v>
+        <v>0.1602765793201349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -10146,19 +10146,19 @@
         <v>115689</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87862</v>
+        <v>88163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147317</v>
+        <v>148742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1529081937442798</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1161290336802714</v>
+        <v>0.1165267612725607</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1947106347019988</v>
+        <v>0.1965940062733803</v>
       </c>
     </row>
     <row r="6">
@@ -10175,19 +10175,19 @@
         <v>157944</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>127984</v>
+        <v>128453</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>190955</v>
+        <v>191119</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3970614901602382</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.32174503328472</v>
+        <v>0.3229241404482177</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4800509071398268</v>
+        <v>0.4804629232077965</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -10196,19 +10196,19 @@
         <v>150550</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>125080</v>
+        <v>126351</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>176545</v>
+        <v>175847</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4195781093566827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3485937047897256</v>
+        <v>0.3521365931967677</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.492027311293422</v>
+        <v>0.4900807726151403</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>150</v>
@@ -10217,19 +10217,19 @@
         <v>308493</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>269910</v>
+        <v>267327</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>350651</v>
+        <v>348040</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.407739931255515</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3567443332547501</v>
+        <v>0.353330192853913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4634604405577257</v>
+        <v>0.4600097206936079</v>
       </c>
     </row>
     <row r="7">
@@ -10246,19 +10246,19 @@
         <v>138445</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108865</v>
+        <v>110933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>168162</v>
+        <v>171912</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3480432942854679</v>
+        <v>0.3480432942854678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2736803832363121</v>
+        <v>0.2788800585447878</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.422751067996762</v>
+        <v>0.4321784043845678</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -10267,19 +10267,19 @@
         <v>160593</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134673</v>
+        <v>135675</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187327</v>
+        <v>184867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.447567746475282</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3753311963811194</v>
+        <v>0.3781217920359395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5220758599098195</v>
+        <v>0.5152186788534949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -10288,19 +10288,19 @@
         <v>299038</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>261908</v>
+        <v>258289</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>341616</v>
+        <v>338280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3952424759644141</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3461674341388341</v>
+        <v>0.3413841267958697</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.451518981634134</v>
+        <v>0.4471095124306849</v>
       </c>
     </row>
     <row r="8">
@@ -10392,19 +10392,19 @@
         <v>49176</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34627</v>
+        <v>35449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>67067</v>
+        <v>68059</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1046302633495802</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07367427601845249</v>
+        <v>0.07542447659758827</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1426969232210485</v>
+        <v>0.1448075797007749</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -10413,19 +10413,19 @@
         <v>7038</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2686</v>
+        <v>2560</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15413</v>
+        <v>15409</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01407747962301619</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005371839760665091</v>
+        <v>0.005121536412678877</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03083078401541495</v>
+        <v>0.03082254395858842</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>41</v>
@@ -10434,19 +10434,19 @@
         <v>56214</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40706</v>
+        <v>41944</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76895</v>
+        <v>78358</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05795642939187931</v>
+        <v>0.0579564293918793</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04196769992205365</v>
+        <v>0.04324449781210471</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07927841841824275</v>
+        <v>0.08078732873557995</v>
       </c>
     </row>
     <row r="10">
@@ -10463,19 +10463,19 @@
         <v>124460</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101608</v>
+        <v>99084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149087</v>
+        <v>151174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2648097180739358</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2161876414542217</v>
+        <v>0.2108184409190536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3172066799578792</v>
+        <v>0.3216466162170732</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -10484,19 +10484,19 @@
         <v>114868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96550</v>
+        <v>95952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138440</v>
+        <v>135981</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2297653766378292</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1931245956247918</v>
+        <v>0.1919290935961074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2769162174444831</v>
+        <v>0.2719977247529042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>185</v>
@@ -10505,19 +10505,19 @@
         <v>239328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>209229</v>
+        <v>205258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>272933</v>
+        <v>272869</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2467467308742834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.21571426851367</v>
+        <v>0.211620216119177</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2813929962767917</v>
+        <v>0.2813268205254641</v>
       </c>
     </row>
     <row r="11">
@@ -10534,19 +10534,19 @@
         <v>153869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128671</v>
+        <v>131415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182542</v>
+        <v>182319</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3273807198329552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.273768425643453</v>
+        <v>0.2796065714167785</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3883880138682899</v>
+        <v>0.3879145979307922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -10555,19 +10555,19 @@
         <v>226331</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204471</v>
+        <v>199960</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250054</v>
+        <v>250500</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4527209100252481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4089934383460628</v>
+        <v>0.3999703937025777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5001723870437192</v>
+        <v>0.5010639962564967</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>306</v>
@@ -10576,19 +10576,19 @@
         <v>380200</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>341460</v>
+        <v>347596</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>415995</v>
+        <v>418013</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3919851083951765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3520437293063719</v>
+        <v>0.3583700738811163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4288900280344312</v>
+        <v>0.4309697672114778</v>
       </c>
     </row>
     <row r="12">
@@ -10605,19 +10605,19 @@
         <v>142494</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116108</v>
+        <v>118587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168698</v>
+        <v>170447</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3031792987435288</v>
+        <v>0.3031792987435287</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2470377956374387</v>
+        <v>0.2523138024683291</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3589329109902895</v>
+        <v>0.3626543853202322</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>140</v>
@@ -10626,19 +10626,19 @@
         <v>151699</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>132634</v>
+        <v>131849</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>173942</v>
+        <v>174801</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3034362337139065</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2653028218080082</v>
+        <v>0.2637325522393701</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.347927941232663</v>
+        <v>0.3496462604912196</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>226</v>
@@ -10647,19 +10647,19 @@
         <v>294193</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>260005</v>
+        <v>264310</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>329553</v>
+        <v>328209</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3033117313386608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2680641749229354</v>
+        <v>0.2725024816533398</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3397680470725793</v>
+        <v>0.338382670065894</v>
       </c>
     </row>
     <row r="13">
@@ -10751,19 +10751,19 @@
         <v>75441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59239</v>
+        <v>60825</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96633</v>
+        <v>95027</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1225499893346539</v>
+        <v>0.1225499893346538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09623032270841932</v>
+        <v>0.0988080638728781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1569762609018602</v>
+        <v>0.1543672269994284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -10772,19 +10772,19 @@
         <v>22215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15038</v>
+        <v>14910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31283</v>
+        <v>31048</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03587605849553784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02428531310921209</v>
+        <v>0.02407884998473695</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05051919623721137</v>
+        <v>0.05013969705147789</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -10793,19 +10793,19 @@
         <v>97656</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79952</v>
+        <v>79237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>118085</v>
+        <v>119843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07908543425970972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06474770900853176</v>
+        <v>0.06416920429697773</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09562930992594618</v>
+        <v>0.09705319612326102</v>
       </c>
     </row>
     <row r="15">
@@ -10822,19 +10822,19 @@
         <v>164019</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>142950</v>
+        <v>141720</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>188316</v>
+        <v>188952</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2664414860579768</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2322165892227251</v>
+        <v>0.2302175674802773</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3059108820565002</v>
+        <v>0.3069434777885559</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>182</v>
@@ -10843,19 +10843,19 @@
         <v>138265</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>121073</v>
+        <v>120700</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>156080</v>
+        <v>156031</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2232873252107841</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1955238474299388</v>
+        <v>0.1949204065656056</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2520567277225547</v>
+        <v>0.2519768527417002</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>325</v>
@@ -10864,19 +10864,19 @@
         <v>302284</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>268679</v>
+        <v>272387</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>328812</v>
+        <v>331319</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2448008799068905</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2175860997551274</v>
+        <v>0.2205893295779633</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2662836435916106</v>
+        <v>0.2683142919117485</v>
       </c>
     </row>
     <row r="16">
@@ -10893,19 +10893,19 @@
         <v>190958</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>168385</v>
+        <v>167002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>215015</v>
+        <v>215990</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3102030567932385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2735340764903237</v>
+        <v>0.2712875698603258</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3492829580447158</v>
+        <v>0.3508665932416112</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>431</v>
@@ -10914,19 +10914,19 @@
         <v>313519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>291096</v>
+        <v>293068</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>333391</v>
+        <v>332917</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5063075079858838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4700958128741961</v>
+        <v>0.4732814314151089</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5383998812866527</v>
+        <v>0.5376345478198975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>598</v>
@@ -10935,19 +10935,19 @@
         <v>504477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>473649</v>
+        <v>472459</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>534271</v>
+        <v>538181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4085439608780653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.38357810381201</v>
+        <v>0.3826148513485121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4326725603819729</v>
+        <v>0.4358384636695485</v>
       </c>
     </row>
     <row r="17">
@@ -10964,19 +10964,19 @@
         <v>185173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162219</v>
+        <v>160628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209832</v>
+        <v>209575</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3008054678141308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2635173088975337</v>
+        <v>0.2609332408465885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3408622076152203</v>
+        <v>0.3404454408193144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -10985,19 +10985,19 @@
         <v>145227</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129089</v>
+        <v>128211</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166183</v>
+        <v>163406</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2345291083077944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2084676798838743</v>
+        <v>0.2070500548903531</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2683721920325207</v>
+        <v>0.2638880749972109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>365</v>
@@ -11006,19 +11006,19 @@
         <v>330400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>300119</v>
+        <v>302108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362263</v>
+        <v>363991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2675697249553345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2430473551677712</v>
+        <v>0.2446583478713741</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2933740280917368</v>
+        <v>0.2947729918583228</v>
       </c>
     </row>
     <row r="18">
@@ -11110,19 +11110,19 @@
         <v>58991</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43918</v>
+        <v>46185</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75026</v>
+        <v>76596</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0844675293178211</v>
+        <v>0.08446752931782109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06288460774081972</v>
+        <v>0.06613098396010805</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1074276818754363</v>
+        <v>0.1096761943368005</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -11131,19 +11131,19 @@
         <v>28612</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20942</v>
+        <v>20787</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38460</v>
+        <v>37649</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03902660945532063</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02856539807318302</v>
+        <v>0.02835353598305354</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05245988496899678</v>
+        <v>0.05135376054129144</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -11152,19 +11152,19 @@
         <v>87603</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72019</v>
+        <v>70950</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106384</v>
+        <v>107389</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06119557698819297</v>
+        <v>0.06119557698819295</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05030940984860045</v>
+        <v>0.04956283376381757</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07431517327225609</v>
+        <v>0.07501768142702424</v>
       </c>
     </row>
     <row r="20">
@@ -11181,19 +11181,19 @@
         <v>160341</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137249</v>
+        <v>137894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>182107</v>
+        <v>183466</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2295876479966792</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1965226297439884</v>
+        <v>0.1974465120165583</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.260754580281136</v>
+        <v>0.2626993925317637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -11202,19 +11202,19 @@
         <v>145119</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128796</v>
+        <v>129579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163169</v>
+        <v>163164</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1979442455498278</v>
+        <v>0.1979442455498279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1756788172904762</v>
+        <v>0.1767475375020412</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2225638635555481</v>
+        <v>0.2225565825064471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>376</v>
@@ -11223,19 +11223,19 @@
         <v>305460</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>277548</v>
+        <v>278788</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>332385</v>
+        <v>334826</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2133819075425105</v>
+        <v>0.2133819075425104</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1938833457809744</v>
+        <v>0.1947496887261445</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2321904981447149</v>
+        <v>0.2338955802726847</v>
       </c>
     </row>
     <row r="21">
@@ -11252,19 +11252,19 @@
         <v>246737</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>223664</v>
+        <v>224271</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>275013</v>
+        <v>273484</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3532953385475737</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3202577635342636</v>
+        <v>0.321127474849233</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3937834325980588</v>
+        <v>0.3915942806534745</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>562</v>
@@ -11273,19 +11273,19 @@
         <v>363678</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>342454</v>
+        <v>342371</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>387351</v>
+        <v>387841</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.496060441259025</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4671104768431772</v>
+        <v>0.4669976846539503</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.528350363018951</v>
+        <v>0.529019056293173</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>795</v>
@@ -11294,19 +11294,19 @@
         <v>610415</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>576269</v>
+        <v>574493</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>645212</v>
+        <v>640777</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4264105544078307</v>
+        <v>0.4264105544078305</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4025577776344592</v>
+        <v>0.4013170775977796</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.450718133699971</v>
+        <v>0.4476200569548909</v>
       </c>
     </row>
     <row r="22">
@@ -11323,19 +11323,19 @@
         <v>232318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>206495</v>
+        <v>206669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>257302</v>
+        <v>256704</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3326494841379261</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2956749740331357</v>
+        <v>0.2959243806393764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3684241157090253</v>
+        <v>0.36756711761423</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>306</v>
@@ -11344,19 +11344,19 @@
         <v>195724</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176179</v>
+        <v>176137</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214610</v>
+        <v>214010</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2669687037358265</v>
+        <v>0.2669687037358266</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2403099421155943</v>
+        <v>0.2402523371097176</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2927297836037941</v>
+        <v>0.2919122242317986</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>530</v>
@@ -11365,19 +11365,19 @@
         <v>428041</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>396854</v>
+        <v>393864</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>459212</v>
+        <v>459369</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.299011961061466</v>
+        <v>0.2990119610614659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.277225673952599</v>
+        <v>0.2751367670332811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3207865079274829</v>
+        <v>0.3208960486295601</v>
       </c>
     </row>
     <row r="23">
@@ -11469,19 +11469,19 @@
         <v>43081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32067</v>
+        <v>32330</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57622</v>
+        <v>56112</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07107505933146546</v>
+        <v>0.07107505933146545</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05290319453205093</v>
+        <v>0.05333707941468512</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09506425672508709</v>
+        <v>0.09257222160500687</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -11490,19 +11490,19 @@
         <v>8881</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4871</v>
+        <v>4938</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15090</v>
+        <v>14537</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01468830040303484</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008055738888899051</v>
+        <v>0.008167545265321239</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02495769273100276</v>
+        <v>0.02404291253546027</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -11511,19 +11511,19 @@
         <v>51962</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39331</v>
+        <v>40929</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65656</v>
+        <v>67679</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04291706153540448</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03248420625196036</v>
+        <v>0.03380422343454505</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05422692687299407</v>
+        <v>0.05589774895300313</v>
       </c>
     </row>
     <row r="25">
@@ -11540,19 +11540,19 @@
         <v>114392</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97058</v>
+        <v>95127</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>134253</v>
+        <v>132718</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1887224473404037</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1601252897836231</v>
+        <v>0.1569383774789536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2214892313420573</v>
+        <v>0.2189560356297371</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>185</v>
@@ -11561,19 +11561,19 @@
         <v>113724</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>98507</v>
+        <v>99368</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128995</v>
+        <v>129264</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1880915118026272</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1629245833601563</v>
+        <v>0.1643477316392416</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.213349510851141</v>
+        <v>0.2137945195849505</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>308</v>
@@ -11582,19 +11582,19 @@
         <v>228116</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>203668</v>
+        <v>202441</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>251829</v>
+        <v>253917</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1884073754721178</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1682153013570762</v>
+        <v>0.1672012758877885</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2079921853268479</v>
+        <v>0.2097169711341484</v>
       </c>
     </row>
     <row r="26">
@@ -11611,19 +11611,19 @@
         <v>233056</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>211115</v>
+        <v>210764</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>257945</v>
+        <v>256547</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3844921118480503</v>
+        <v>0.3844921118480504</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3482945797214734</v>
+        <v>0.3477145914214226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4255534571385979</v>
+        <v>0.4232463332288754</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>527</v>
@@ -11632,19 +11632,19 @@
         <v>317333</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>296602</v>
+        <v>299055</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>335260</v>
+        <v>337196</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5248476329413455</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4905591315346576</v>
+        <v>0.4946161211787095</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5544964672736918</v>
+        <v>0.5576986498162834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>778</v>
@@ -11653,19 +11653,19 @@
         <v>550389</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>520772</v>
+        <v>519023</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>583469</v>
+        <v>581143</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4545818018518024</v>
+        <v>0.4545818018518023</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4301201207312462</v>
+        <v>0.4286750676034385</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4819032910187504</v>
+        <v>0.4799822531636334</v>
       </c>
     </row>
     <row r="27">
@@ -11682,19 +11682,19 @@
         <v>215610</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>192442</v>
+        <v>193184</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>238697</v>
+        <v>237658</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3557103814800804</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3174870882033445</v>
+        <v>0.3187118744163902</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3937982921802423</v>
+        <v>0.3920837419514086</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>270</v>
@@ -11703,19 +11703,19 @@
         <v>164682</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>147476</v>
+        <v>148454</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>182452</v>
+        <v>180627</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2723725548529925</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2439155356357726</v>
+        <v>0.2455331673649608</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3017628607589738</v>
+        <v>0.2987452169102502</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>509</v>
@@ -11724,19 +11724,19 @@
         <v>380292</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>351833</v>
+        <v>354485</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>408768</v>
+        <v>409170</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.3140937611406755</v>
+        <v>0.3140937611406754</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2905884019450213</v>
+        <v>0.2927786892169463</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3376126711411612</v>
+        <v>0.3379445210473436</v>
       </c>
     </row>
     <row r="28">
@@ -11828,19 +11828,19 @@
         <v>3227</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1125</v>
+        <v>1179</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7137</v>
+        <v>7313</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007967910036263006</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002779025141173943</v>
+        <v>0.002911906312024194</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01762508040743204</v>
+        <v>0.01805779237407841</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -11849,19 +11849,19 @@
         <v>2718</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6123</v>
+        <v>6219</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.006230021671582273</v>
+        <v>0.006230021671582272</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002110498022801254</v>
+        <v>0.002126444022742556</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01403639494970505</v>
+        <v>0.01425526225620695</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -11870,19 +11870,19 @@
         <v>5944</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2717</v>
+        <v>3118</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10387</v>
+        <v>10784</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.007066637840021209</v>
+        <v>0.007066637840021211</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003230288719001955</v>
+        <v>0.003706567641953005</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01234809837829272</v>
+        <v>0.01282009853813956</v>
       </c>
     </row>
     <row r="30">
@@ -11899,19 +11899,19 @@
         <v>60795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48413</v>
+        <v>49270</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>74015</v>
+        <v>73782</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1501290869402125</v>
+        <v>0.1501290869402124</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1195507310270638</v>
+        <v>0.1216680792573269</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.182774357672289</v>
+        <v>0.1821973685224861</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>99</v>
@@ -11920,19 +11920,19 @@
         <v>51821</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>42591</v>
+        <v>42135</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>62602</v>
+        <v>62801</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1187878829890877</v>
+        <v>0.1187878829890876</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09762953545816049</v>
+        <v>0.09658441195691932</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1435010449656772</v>
+        <v>0.1439570991269468</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>184</v>
@@ -11941,19 +11941,19 @@
         <v>112617</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>98799</v>
+        <v>97081</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>129384</v>
+        <v>127830</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1338754792333207</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.117449953856925</v>
+        <v>0.1154066856831911</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1538077417596024</v>
+        <v>0.1519610517392346</v>
       </c>
     </row>
     <row r="31">
@@ -11970,19 +11970,19 @@
         <v>184903</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>167257</v>
+        <v>166844</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>201313</v>
+        <v>200586</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4566031492729514</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.413027512574466</v>
+        <v>0.4120063777926241</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4971246719180791</v>
+        <v>0.4953312624805629</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>414</v>
@@ -11991,19 +11991,19 @@
         <v>214207</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>200093</v>
+        <v>200855</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>230020</v>
+        <v>230017</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4910179222096873</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4586662152339702</v>
+        <v>0.460412052827012</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5272667902609993</v>
+        <v>0.5272595596942724</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>673</v>
@@ -12012,19 +12012,19 @@
         <v>399110</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>376992</v>
+        <v>375541</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>419962</v>
+        <v>421503</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4744507156749238</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4481576802827558</v>
+        <v>0.4464326144608738</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4992396035188647</v>
+        <v>0.5010710703906183</v>
       </c>
     </row>
     <row r="32">
@@ -12041,19 +12041,19 @@
         <v>156029</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>139895</v>
+        <v>140366</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>174179</v>
+        <v>173983</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3852998537505732</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3454595891569491</v>
+        <v>0.3466220129479294</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4301215778590934</v>
+        <v>0.4296363609153572</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>304</v>
@@ -12062,19 +12062,19 @@
         <v>167504</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>153182</v>
+        <v>152149</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>181579</v>
+        <v>181901</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3839641731296429</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3511344920981525</v>
+        <v>0.3487662783524272</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.416227815069747</v>
+        <v>0.4169661704494167</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>523</v>
@@ -12083,19 +12083,19 @@
         <v>323533</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>302658</v>
+        <v>300852</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>346040</v>
+        <v>346075</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.3846071672517343</v>
+        <v>0.3846071672517344</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3597910063710235</v>
+        <v>0.3576439546079324</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4113629611321235</v>
+        <v>0.4114044267502108</v>
       </c>
     </row>
     <row r="33">
@@ -12234,19 +12234,19 @@
         <v>34129</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>26050</v>
+        <v>25843</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>43836</v>
+        <v>44231</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1105106480429781</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08435174692272535</v>
+        <v>0.08367994876386284</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1419405737306967</v>
+        <v>0.1432208231200169</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -12255,19 +12255,19 @@
         <v>16270</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11610</v>
+        <v>11564</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22702</v>
+        <v>23050</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.0352417078134713</v>
+        <v>0.03524170781347129</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02514815516759149</v>
+        <v>0.02504690373068233</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0491729163802013</v>
+        <v>0.04992614970921969</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>86</v>
@@ -12276,19 +12276,19 @@
         <v>50399</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>40399</v>
+        <v>40305</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>62195</v>
+        <v>62535</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0654107190881561</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05243189679234182</v>
+        <v>0.05230938556230288</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08072034102946192</v>
+        <v>0.08116069283320744</v>
       </c>
     </row>
     <row r="36">
@@ -12305,19 +12305,19 @@
         <v>102267</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>87570</v>
+        <v>88067</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>117523</v>
+        <v>116916</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3311411521572718</v>
+        <v>0.3311411521572717</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2835545796382154</v>
+        <v>0.2851611918253188</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3805411091416338</v>
+        <v>0.3785755649434169</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>300</v>
@@ -12326,19 +12326,19 @@
         <v>150183</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>136483</v>
+        <v>135756</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>166420</v>
+        <v>164700</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3253012595351137</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2956267459448719</v>
+        <v>0.2940515955667299</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.360469897143548</v>
+        <v>0.3567445721566826</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>448</v>
@@ -12347,19 +12347,19 @@
         <v>252450</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>233510</v>
+        <v>231714</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>274695</v>
+        <v>271323</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3276419831566185</v>
+        <v>0.3276419831566184</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3030604840767283</v>
+        <v>0.3007298308262821</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3565129066011221</v>
+        <v>0.3521362533475507</v>
       </c>
     </row>
     <row r="37">
@@ -12376,19 +12376,19 @@
         <v>172435</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>157261</v>
+        <v>158645</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>186123</v>
+        <v>186812</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.5583481997997501</v>
+        <v>0.55834819979975</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5092149680392722</v>
+        <v>0.5136937045736037</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6026702195402194</v>
+        <v>0.6049013766264544</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>545</v>
@@ -12397,19 +12397,19 @@
         <v>295221</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>279617</v>
+        <v>279594</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>311092</v>
+        <v>309127</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.6394570326514151</v>
+        <v>0.6394570326514148</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6056579990237003</v>
+        <v>0.6056085728470626</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6738344825678745</v>
+        <v>0.6695794635793467</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>801</v>
@@ -12418,19 +12418,19 @@
         <v>467656</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>444682</v>
+        <v>448219</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>488082</v>
+        <v>489523</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6069472977552256</v>
+        <v>0.6069472977552254</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5771303605532065</v>
+        <v>0.581721422231513</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6334570932423151</v>
+        <v>0.6353279978636064</v>
       </c>
     </row>
     <row r="38">
@@ -12522,19 +12522,19 @@
         <v>254579</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>223092</v>
+        <v>222859</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>291947</v>
+        <v>292556</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.07270188621585909</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06371006851335341</v>
+        <v>0.06364345939961594</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08337331406488746</v>
+        <v>0.083547152451829</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>102</v>
@@ -12543,19 +12543,19 @@
         <v>78173</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>63881</v>
+        <v>62671</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>96120</v>
+        <v>95209</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.02105026876524909</v>
+        <v>0.0210502687652491</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01720163877281773</v>
+        <v>0.01687591907545384</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02588288922619129</v>
+        <v>0.02563744418721535</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>323</v>
@@ -12564,19 +12564,19 @@
         <v>332752</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>295335</v>
+        <v>300069</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>372443</v>
+        <v>375792</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04611737343479754</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.04093159527647727</v>
+        <v>0.04158769992461121</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05161828111583402</v>
+        <v>0.05208242005127866</v>
       </c>
     </row>
     <row r="40">
@@ -12593,19 +12593,19 @@
         <v>734866</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>684152</v>
+        <v>678793</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>791683</v>
+        <v>788349</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.2098608943376966</v>
+        <v>0.2098608943376967</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.195378189676593</v>
+        <v>0.1938476652877</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2260864986448042</v>
+        <v>0.2251343158730075</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>848</v>
@@ -12614,19 +12614,19 @@
         <v>619028</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>582430</v>
+        <v>581122</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>662852</v>
+        <v>661265</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.166689840996471</v>
+        <v>0.1666898409964711</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1568349345285945</v>
+        <v>0.1564827006342339</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1784906237376361</v>
+        <v>0.1780632303838578</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1518</v>
@@ -12635,19 +12635,19 @@
         <v>1353894</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1283261</v>
+        <v>1286650</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1421164</v>
+        <v>1428540</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1876412335416116</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1778518274326458</v>
+        <v>0.1783216285835715</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1969644040433786</v>
+        <v>0.1979866551651794</v>
       </c>
     </row>
     <row r="41">
@@ -12664,19 +12664,19 @@
         <v>1269733</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1206593</v>
+        <v>1210447</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1334576</v>
+        <v>1336894</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3626065592916825</v>
+        <v>0.3626065592916826</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3445753625378029</v>
+        <v>0.3456759173840639</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3811241311751546</v>
+        <v>0.3817861833032766</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2529</v>
@@ -12685,19 +12685,19 @@
         <v>1735802</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1682720</v>
+        <v>1683299</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1790107</v>
+        <v>1788301</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.4674109801607486</v>
+        <v>0.4674109801607487</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4531172701154302</v>
+        <v>0.453273279031475</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4820342528917215</v>
+        <v>0.4815479104988791</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3748</v>
@@ -12706,19 +12706,19 @@
         <v>3005535</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2919959</v>
+        <v>2922078</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3088059</v>
+        <v>3091116</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4165482285679568</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4046878898145375</v>
+        <v>0.4049815922715244</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4279855438230462</v>
+        <v>0.4284092611946723</v>
       </c>
     </row>
     <row r="42">
@@ -12735,19 +12735,19 @@
         <v>1242504</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1858</v>
@@ -12756,19 +12756,19 @@
         <v>1280649</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3106</v>
@@ -12777,19 +12777,19 @@
         <v>2523153</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3496931644556341</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="43">
